--- a/data/hotels_by_city/Dallas/Dallas_shard_570.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_570.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,762 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r423296677-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>55815</t>
+  </si>
+  <si>
+    <t>98736</t>
+  </si>
+  <si>
+    <t>423296677</t>
+  </si>
+  <si>
+    <t>09/28/2016</t>
+  </si>
+  <si>
+    <t>Wasted my money</t>
+  </si>
+  <si>
+    <t>Yes i made the mistake by booking here and not somewhere expensive considering the fact that i was only sleeping there for about 5 hours. My plan was to get there and shower but that went out the door when i looked at the Shower.. it was disgusting. My friend stayed in the room next to me so i thought it was just my room but hers was like that too :( Everything in my room was out dated...specially the AC. Not gonna lie, customer service there is pretty good but i will NOT be staying there again. This place needs Major remodeling.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Euless- DFW West, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Yes i made the mistake by booking here and not somewhere expensive considering the fact that i was only sleeping there for about 5 hours. My plan was to get there and shower but that went out the door when i looked at the Shower.. it was disgusting. My friend stayed in the room next to me so i thought it was just my room but hers was like that too :( Everything in my room was out dated...specially the AC. Not gonna lie, customer service there is pretty good but i will NOT be staying there again. This place needs Major remodeling.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r403025437-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>403025437</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>I WON'T BE DOING IT AGAIN HERE!</t>
+  </si>
+  <si>
+    <t>A very clean Motel 6 just down the road from my house. I watched this place being renovated twice in 14 years. This is a very clean place BUT it is a bed and TV and a bathroom/Shower. That's it! No coffeemaker in the room no microwave, no fridge and the TV isn't worth the trouble. I only say that because the price was $50! AT A Motel 6!!! I remember a time when people took care of people and now it's a time of how much can I squeeze out of people. The front desk clerk was the most memorable part of my stay. I was remodeling my bathroom and this place was just down the street but I moved on after 1 night here. I won't DO IT HERE AGAIN! Just because I have and can make money doesn't mean I am a carefree spender. I give value at my business and I expect value from others. Especially in my community.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>A very clean Motel 6 just down the road from my house. I watched this place being renovated twice in 14 years. This is a very clean place BUT it is a bed and TV and a bathroom/Shower. That's it! No coffeemaker in the room no microwave, no fridge and the TV isn't worth the trouble. I only say that because the price was $50! AT A Motel 6!!! I remember a time when people took care of people and now it's a time of how much can I squeeze out of people. The front desk clerk was the most memorable part of my stay. I was remodeling my bathroom and this place was just down the street but I moved on after 1 night here. I won't DO IT HERE AGAIN! Just because I have and can make money doesn't mean I am a carefree spender. I give value at my business and I expect value from others. Especially in my community.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r382196242-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>382196242</t>
+  </si>
+  <si>
+    <t>06/13/2016</t>
+  </si>
+  <si>
+    <t>Looking for an inexpensive lodging, in town for an event.</t>
+  </si>
+  <si>
+    <t>My room was decently clean. I stayed 3 days and it was cleaned and linen replaced every day. Seemed to have been a room recently refurbished. I was in town for an event and really was not in the room too much. Starbucks right next door and Denny's next to that. Office Max and Home Depot across the alleyway. Police drive by after dark every day I was there. Wifi was decently fast, but the connection dropped frequently. Free coffee til 10am.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r292574454-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>292574454</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>yuck....nasty dirty and over priced</t>
+  </si>
+  <si>
+    <t>Writing this from my dirty crappy room.  It is obvious that nobody has picked up the millions of cigarette butts or trash on the sidewalks for a long while.  Towels have stains on them. Would not recommend this place unless you are looking to buy crack.  I will say that the Staff is nice and very friendly and the WIFI works great from my room anyway.  I will not stay here again.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r236469125-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>236469125</t>
+  </si>
+  <si>
+    <t>10/26/2014</t>
+  </si>
+  <si>
+    <t>Very Good</t>
+  </si>
+  <si>
+    <t>I checked into this hotel at around 2am after returning from an event. The young lady that was on night duty did a superb job with her customer service..Although things could be updated a bit my over night stay went well.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r230743526-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>230743526</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Looks like they are struggling</t>
+  </si>
+  <si>
+    <t>The lobby was nice enough, and the workers friendly.  It was a little disconcerting that the lights were out at night on the exterior of the building though.  The room was quiet, air conditioner worked well, but the carpet had seen better days, and we saw some bugs in the bathroom area.  I probably wouldn't stay again, mainly because of the bugs I saw, but I'm kind of bug averse.  We had an early morning flight, so all we did was sleep.  The beds were clean and comfortable though, so if you are looking for an inexpensive place to stay close to the airport and aren't real picky, this might be your hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The lobby was nice enough, and the workers friendly.  It was a little disconcerting that the lights were out at night on the exterior of the building though.  The room was quiet, air conditioner worked well, but the carpet had seen better days, and we saw some bugs in the bathroom area.  I probably wouldn't stay again, mainly because of the bugs I saw, but I'm kind of bug averse.  We had an early morning flight, so all we did was sleep.  The beds were clean and comfortable though, so if you are looking for an inexpensive place to stay close to the airport and aren't real picky, this might be your hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r217794237-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>217794237</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>Looks Good from Far but Far from Good</t>
+  </si>
+  <si>
+    <t>Stayed here because it was convenient after selling our home.   The room was clean, however it was surrounded by rooms that had broken windows.  Kind of a scary area where the room was located since it wasn't well lighted and remote.    The front office people were nice.  For the price it was okay.   The convenience of being by the freeway was good.  There wasn't a fridge or microwave as stated on the website.  The TV was similar to the one I gave to charity about 8 years ago.   There were plenty of fresh towels and soap.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r216577247-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>216577247</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Not good</t>
+  </si>
+  <si>
+    <t>I stayed here one night for a job interview. The water was either hot or hotter in the shower. The majority of the tv channels barely worked or didn't work. The beds were not very comfortable.  The staff in the office were nice though. The offered to move us to a new room, but it was late in the evening. The toilet ran for several minutes after it was flushed. When you took a shower, rhe water got all over tye floor. The room did not seem to have been cleaned very well either. Don't think I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r213099546-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>213099546</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Terribly Managed</t>
+  </si>
+  <si>
+    <t>I stayed here on an overnight layover in June 2014.  The guaranteed airport shuttle never came in the evening.  After waiting for an hour, I ended up taking a cab to the hotel, and in the morning it was the same story: The complementary shuttle was not running.  My fares have not been reimbursed.  The night I was there was a nightmare for the guy at the desk.  People had been booked into rooms that had not been cleaned.  As I was checking in, someone came and complained that someone was already sleeping in their hotel room when they arrived.  The manager is absent, and can not be reached.This hotel is unorganized, and poorly managed.  Take your money elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I stayed here on an overnight layover in June 2014.  The guaranteed airport shuttle never came in the evening.  After waiting for an hour, I ended up taking a cab to the hotel, and in the morning it was the same story: The complementary shuttle was not running.  My fares have not been reimbursed.  The night I was there was a nightmare for the guy at the desk.  People had been booked into rooms that had not been cleaned.  As I was checking in, someone came and complained that someone was already sleeping in their hotel room when they arrived.  The manager is absent, and can not be reached.This hotel is unorganized, and poorly managed.  Take your money elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r201866792-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>201866792</t>
+  </si>
+  <si>
+    <t>04/19/2014</t>
+  </si>
+  <si>
+    <t>Delta should be ashamed</t>
+  </si>
+  <si>
+    <t>Delta dumped us here and really needs to do a site inspection. The room smelled, the loud floor air conditioner kept me up all nite thumping on and off and the continuous fan setting didn't work. Carpets stained, bedspreads ancient, roaches in the bathroom. YUK!!!!! I had no luggage courtesy of Delta and was afraid to sleep in the bed with no clothes. Cars pull up right to the room and make all kinds of noise. Room is horrible but staff very pleasant and helpful. Agree with another reviewer about the shuttle. We waited an hour for airport pickup and was told each time we called "he just left". Really? the hotel is 3 miles away.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Delta dumped us here and really needs to do a site inspection. The room smelled, the loud floor air conditioner kept me up all nite thumping on and off and the continuous fan setting didn't work. Carpets stained, bedspreads ancient, roaches in the bathroom. YUK!!!!! I had no luggage courtesy of Delta and was afraid to sleep in the bed with no clothes. Cars pull up right to the room and make all kinds of noise. Room is horrible but staff very pleasant and helpful. Agree with another reviewer about the shuttle. We waited an hour for airport pickup and was told each time we called "he just left". Really? the hotel is 3 miles away.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r198433728-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>198433728</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Helpful, Cheerful Staff (once we got there) from delayed flight</t>
+  </si>
+  <si>
+    <t>American Airlines flight delays must keep this place in business.  Our flight from San Jose, CA was delayed by 8 hours so we ended up here for a very short (6 hours total) night.  American staff told us the hotel was 20 minutes by shuttle and gave us a number to call for pickup, instead of doing it for us!  We waited about 40 minutes for the shuttle - a group of very tired travelers, all of us freezing in the 20 degree night - and we continued to freeze on the shuttle which had no heat during our 30 minute ride. The return shuttle ride at 5 A.m. was only 20 minutes as advertised!When we arrived at the Quality Inn, the cheerful staff was organized, told us all everything we needed to know as a group and checked us in a just a few minutes.  it was the most thoughtful service we received all day. The front desk staff was helpful also in deciding when we needed to return to DFW.The room was clean and the beds were reasonably comfortable, but due to short stay, I can't comment on much else.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>American Airlines flight delays must keep this place in business.  Our flight from San Jose, CA was delayed by 8 hours so we ended up here for a very short (6 hours total) night.  American staff told us the hotel was 20 minutes by shuttle and gave us a number to call for pickup, instead of doing it for us!  We waited about 40 minutes for the shuttle - a group of very tired travelers, all of us freezing in the 20 degree night - and we continued to freeze on the shuttle which had no heat during our 30 minute ride. The return shuttle ride at 5 A.m. was only 20 minutes as advertised!When we arrived at the Quality Inn, the cheerful staff was organized, told us all everything we needed to know as a group and checked us in a just a few minutes.  it was the most thoughtful service we received all day. The front desk staff was helpful also in deciding when we needed to return to DFW.The room was clean and the beds were reasonably comfortable, but due to short stay, I can't comment on much else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r197865102-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>197865102</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>WORST HOTEL IN THE STATE OF TEXAS! !!!</t>
+  </si>
+  <si>
+    <t>First off I stayed from February 23 to March 18. My husband and I were making arrangements to move out of state so we stayed here until everything was ready in the other state. From the night we checked in until we left the service was POOR. They were over charging my credit card and the manager is a JOKE. THE HOTEL OWED ME $355 and they did not want to pay me back. I had to go back and forth with there corporate bank and my bank and finally received my money back. So I started paying in cash and they were suppose to remove my card from there system and they did not they were taking my cash and still charging my card $514 they owed me a second time. The housekeeping does not clean properly they also take personal items and monies that do not belong to them.  I told the manager on duty and she took the staff word over mine the guess. They give discounts and take them back and give you a made up excuse as to why it happened. This is NOT a home away from home. Tasha , another lady  I forget her name and a young man at the front desk are the only good thing about that HOTEL. In need of NEW MANAGEMENT ASAP.I WILL NOT STAY HERE AGAIN. DO NOT WASTE YOUR HARD EARNED MONEY HERE. RIP OFF. WOULD...First off I stayed from February 23 to March 18. My husband and I were making arrangements to move out of state so we stayed here until everything was ready in the other state. From the night we checked in until we left the service was POOR. They were over charging my credit card and the manager is a JOKE. THE HOTEL OWED ME $355 and they did not want to pay me back. I had to go back and forth with there corporate bank and my bank and finally received my money back. So I started paying in cash and they were suppose to remove my card from there system and they did not they were taking my cash and still charging my card $514 they owed me a second time. The housekeeping does not clean properly they also take personal items and monies that do not belong to them.  I told the manager on duty and she took the staff word over mine the guess. They give discounts and take them back and give you a made up excuse as to why it happened. This is NOT a home away from home. Tasha , another lady  I forget her name and a young man at the front desk are the only good thing about that HOTEL. In need of NEW MANAGEMENT ASAP.I WILL NOT STAY HERE AGAIN. DO NOT WASTE YOUR HARD EARNED MONEY HERE. RIP OFF. WOULD NOT RECOMMEND THIS HOTEL TO ANY ONE.When I checked out the manager asked about my credit card. No sorry for all the inconvenient things we have done. No please come again next time we will be on our A game for your next visit. She sucks. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>First off I stayed from February 23 to March 18. My husband and I were making arrangements to move out of state so we stayed here until everything was ready in the other state. From the night we checked in until we left the service was POOR. They were over charging my credit card and the manager is a JOKE. THE HOTEL OWED ME $355 and they did not want to pay me back. I had to go back and forth with there corporate bank and my bank and finally received my money back. So I started paying in cash and they were suppose to remove my card from there system and they did not they were taking my cash and still charging my card $514 they owed me a second time. The housekeeping does not clean properly they also take personal items and monies that do not belong to them.  I told the manager on duty and she took the staff word over mine the guess. They give discounts and take them back and give you a made up excuse as to why it happened. This is NOT a home away from home. Tasha , another lady  I forget her name and a young man at the front desk are the only good thing about that HOTEL. In need of NEW MANAGEMENT ASAP.I WILL NOT STAY HERE AGAIN. DO NOT WASTE YOUR HARD EARNED MONEY HERE. RIP OFF. WOULD...First off I stayed from February 23 to March 18. My husband and I were making arrangements to move out of state so we stayed here until everything was ready in the other state. From the night we checked in until we left the service was POOR. They were over charging my credit card and the manager is a JOKE. THE HOTEL OWED ME $355 and they did not want to pay me back. I had to go back and forth with there corporate bank and my bank and finally received my money back. So I started paying in cash and they were suppose to remove my card from there system and they did not they were taking my cash and still charging my card $514 they owed me a second time. The housekeeping does not clean properly they also take personal items and monies that do not belong to them.  I told the manager on duty and she took the staff word over mine the guess. They give discounts and take them back and give you a made up excuse as to why it happened. This is NOT a home away from home. Tasha , another lady  I forget her name and a young man at the front desk are the only good thing about that HOTEL. In need of NEW MANAGEMENT ASAP.I WILL NOT STAY HERE AGAIN. DO NOT WASTE YOUR HARD EARNED MONEY HERE. RIP OFF. WOULD NOT RECOMMEND THIS HOTEL TO ANY ONE.When I checked out the manager asked about my credit card. No sorry for all the inconvenient things we have done. No please come again next time we will be on our A game for your next visit. She sucks. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r194970534-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>194970534</t>
+  </si>
+  <si>
+    <t>02/22/2014</t>
+  </si>
+  <si>
+    <t>American Airlines Stuck Us Here</t>
+  </si>
+  <si>
+    <t>The only reason we stayed here was because our American Airline flight home had mechanical problems and this is where they put us.  American Airlines must keep this place in business, since everyone we saw there had an airline voucher.  The shuttle driver was friendly.  The desk attendant was very nice and helpful, but she had only been there a week.  Our first room smelled like cat pee.  Our second room smelled funny, but better than the first.  I was sneezing like crazy by the time we left.  The walls are very thin and we could hear everything in the other rooms.  We didn't even undress.  The do have free breakfast, but we didn't even look at it.  We went back to the airport as soon as we woke up and ate there, but there were restaurants within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>The only reason we stayed here was because our American Airline flight home had mechanical problems and this is where they put us.  American Airlines must keep this place in business, since everyone we saw there had an airline voucher.  The shuttle driver was friendly.  The desk attendant was very nice and helpful, but she had only been there a week.  Our first room smelled like cat pee.  Our second room smelled funny, but better than the first.  I was sneezing like crazy by the time we left.  The walls are very thin and we could hear everything in the other rooms.  We didn't even undress.  The do have free breakfast, but we didn't even look at it.  We went back to the airport as soon as we woke up and ate there, but there were restaurants within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r191474434-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>191474434</t>
+  </si>
+  <si>
+    <t>01/20/2014</t>
+  </si>
+  <si>
+    <t>nice stay ,i see lots of upgrades,great place to stay</t>
+  </si>
+  <si>
+    <t>I stayed there for 3 days because of flight cancellations due to a major ice storm in Dallas. The hotel was well maintained and the complimentary breakfast every morning was a life saver. The staff was friendly and very accommodating. The shuttle drivers went above and beyond to transport guests to and from the airport in dicey weather conditions. Great place to stay and convenient to DFW from the Ft. Worth side of the Metroplex.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r187804382-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>187804382</t>
+  </si>
+  <si>
+    <t>12/16/2013</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>My stay at this hotel went very well. The staff was friendly and the rooms were nice. The location is beneficial, as it is near the airport. The complementary breakfast was a plus. Stores and restaurants were walking distance which made it even better.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r184823527-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>184823527</t>
+  </si>
+  <si>
+    <t>11/15/2013</t>
+  </si>
+  <si>
+    <t>comfortable stay</t>
+  </si>
+  <si>
+    <t>Good hotel to stay ideal location near by airport ,mall,and walking distance to Denny's restaurant and other restaurants ,easy in and out from highway  breakfast was excellent ,comfortable rooms good pillows and mattress is comfortable i sleep good the home depot is close by i always  buy staff from there ,our group will come back and stay in this hotel again Shahrukh khan</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r183682769-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>183682769</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>I've stayed in worse</t>
+  </si>
+  <si>
+    <t>Place is old(er) but like I said, I've stayed in worse.  Our room was 156 and here is what was wrong with it:  Smelled musty, small black ants on tables and bathroom countertop.  Went through lobby to ask a question and lobby had a sewage smell.  Don't know why just got outta there quick.  Here is the good:  Right next door to Starbucks, Denny's and Taco Cabana.  My wife and I walked over to TC and had food and drinks before turning in for the night.  Bed was comfortable, sheets were clean and had plenty of fluffy pillows (5).  In the morning...coffee at Starbucks.  Skipped the free breakfast so can't comment.  Now in all fairness I'd like to add that we didn't complain and had we, who knows, they may have put us in another room?  Either way, believe it or not...I would stay there again but a discount for next visit would have been nice. ;-)MoreShow less</t>
+  </si>
+  <si>
+    <t>Place is old(er) but like I said, I've stayed in worse.  Our room was 156 and here is what was wrong with it:  Smelled musty, small black ants on tables and bathroom countertop.  Went through lobby to ask a question and lobby had a sewage smell.  Don't know why just got outta there quick.  Here is the good:  Right next door to Starbucks, Denny's and Taco Cabana.  My wife and I walked over to TC and had food and drinks before turning in for the night.  Bed was comfortable, sheets were clean and had plenty of fluffy pillows (5).  In the morning...coffee at Starbucks.  Skipped the free breakfast so can't comment.  Now in all fairness I'd like to add that we didn't complain and had we, who knows, they may have put us in another room?  Either way, believe it or not...I would stay there again but a discount for next visit would have been nice. ;-)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r179651099-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>179651099</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>Ugh!  Stay at the Microtel next door!</t>
+  </si>
+  <si>
+    <t>The only positive about this was the room was on the back side of the hotel.  I have stayed at several Quality Inns successfully, so I thought this would be a no brainer.  WRONG!  It was dingy and dark. Only half the lights worked.  The carpet was disgusting.  No let me say, I always try to find the bright side of the hotels I stay in, but this one really didn't have one.  Well, the internet did work decently, but that was the only plus!   Stay next door at the Microtel if you want a much better and cleaner stay!</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r174326675-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>174326675</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>friendly and accommodating</t>
+  </si>
+  <si>
+    <t>We were in the area for a baseball tournament for a 5-night stay and had a large group. The staff was friendly and accommodating and the group rate was ideal. Beautiful, contemporary,  hotel with clean rooms and comfortable beds.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r173022699-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>173022699</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>great stay will come again</t>
+  </si>
+  <si>
+    <t>This is a well kept property even though it's a older property , nothing pretentious about it. You get what you pay for and then some.Our room was very clean and everything worked properly. The beds were some of the best and most comfortable that I've encountered in any hotel in recent memory. Nice staff, very friendly. We never had any issues at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r167118701-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>167118701</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>No complaints.</t>
+  </si>
+  <si>
+    <t>This hotel was clean. Bed was comfortable. Safe location. Freeway construction in progress nearby, but not really a problem. Didn't hear any noise from our room in the back. Continental breakfast offered lots of variety   Diana at front desk was very pleasant, friendly.  Diana went  out of her way to find a phone charger for me to use. June 7-9, 2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r151204546-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>151204546</t>
+  </si>
+  <si>
+    <t>02/01/2013</t>
+  </si>
+  <si>
+    <t>What a dump. Gross and sketchy to say the least.</t>
+  </si>
+  <si>
+    <t>From the minute we walked in I was grossed out. 1st off I walk in the bathroom and notice the maids didn't bother to clean up the people before us. Their soap was still in the bathtub and the bathtub had a nasty black dinge on the floor of the tub. I mean how much does clorox cost...NOT MUCH. Then I go to get ice. Well as for the ice machine outside, you have to put your room key in to get it to work(must be a sketchy area if they are worried about people stealing ice), but the stupid thing didn't even work anyways. Luckily the ice machine in the lobby worked. I get back to my room and wanted to call the front desk to schedule a wake up call. Well my phone didn't work and didn't even have wires to connect it to an outlet. The tv was super old and had some discoloration but at least it worked. The front desk attendant was so worried about talking to her friend that was there, that she never turned on the movie channel(many hotels these days play movies from the front desk) and you can tell when they have simply forgot about it because a screen saver plays on that channel. I was so tired I just crashed but when I woke up the next morning as I'm getting ready I notice blood stains on one of my...From the minute we walked in I was grossed out. 1st off I walk in the bathroom and notice the maids didn't bother to clean up the people before us. Their soap was still in the bathtub and the bathtub had a nasty black dinge on the floor of the tub. I mean how much does clorox cost...NOT MUCH. Then I go to get ice. Well as for the ice machine outside, you have to put your room key in to get it to work(must be a sketchy area if they are worried about people stealing ice), but the stupid thing didn't even work anyways. Luckily the ice machine in the lobby worked. I get back to my room and wanted to call the front desk to schedule a wake up call. Well my phone didn't work and didn't even have wires to connect it to an outlet. The tv was super old and had some discoloration but at least it worked. The front desk attendant was so worried about talking to her friend that was there, that she never turned on the movie channel(many hotels these days play movies from the front desk) and you can tell when they have simply forgot about it because a screen saver plays on that channel. I was so tired I just crashed but when I woke up the next morning as I'm getting ready I notice blood stains on one of my pillows. WTF? I was mortified I and took the pillow case off threw it on the floor in hopes that they would realize I needed it changed. I would have changed hotels if it was up to me but I'm on business and my company already prepaid for my stay. Well I get back from working all day to find that the maid hadn't cared to take out the trash, when both small trash cans in my room were full. And whoever "cleaned" my room had decided to take my full unopened soda bottle I had bought the night before. This place was horrible and I will never return ( and I visit fort worth many times a year on business). My company will definitely hear my complaints and will never put myself or any other members of our company up in this hotel ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the minute we walked in I was grossed out. 1st off I walk in the bathroom and notice the maids didn't bother to clean up the people before us. Their soap was still in the bathtub and the bathtub had a nasty black dinge on the floor of the tub. I mean how much does clorox cost...NOT MUCH. Then I go to get ice. Well as for the ice machine outside, you have to put your room key in to get it to work(must be a sketchy area if they are worried about people stealing ice), but the stupid thing didn't even work anyways. Luckily the ice machine in the lobby worked. I get back to my room and wanted to call the front desk to schedule a wake up call. Well my phone didn't work and didn't even have wires to connect it to an outlet. The tv was super old and had some discoloration but at least it worked. The front desk attendant was so worried about talking to her friend that was there, that she never turned on the movie channel(many hotels these days play movies from the front desk) and you can tell when they have simply forgot about it because a screen saver plays on that channel. I was so tired I just crashed but when I woke up the next morning as I'm getting ready I notice blood stains on one of my...From the minute we walked in I was grossed out. 1st off I walk in the bathroom and notice the maids didn't bother to clean up the people before us. Their soap was still in the bathtub and the bathtub had a nasty black dinge on the floor of the tub. I mean how much does clorox cost...NOT MUCH. Then I go to get ice. Well as for the ice machine outside, you have to put your room key in to get it to work(must be a sketchy area if they are worried about people stealing ice), but the stupid thing didn't even work anyways. Luckily the ice machine in the lobby worked. I get back to my room and wanted to call the front desk to schedule a wake up call. Well my phone didn't work and didn't even have wires to connect it to an outlet. The tv was super old and had some discoloration but at least it worked. The front desk attendant was so worried about talking to her friend that was there, that she never turned on the movie channel(many hotels these days play movies from the front desk) and you can tell when they have simply forgot about it because a screen saver plays on that channel. I was so tired I just crashed but when I woke up the next morning as I'm getting ready I notice blood stains on one of my pillows. WTF? I was mortified I and took the pillow case off threw it on the floor in hopes that they would realize I needed it changed. I would have changed hotels if it was up to me but I'm on business and my company already prepaid for my stay. Well I get back from working all day to find that the maid hadn't cared to take out the trash, when both small trash cans in my room were full. And whoever "cleaned" my room had decided to take my full unopened soda bottle I had bought the night before. This place was horrible and I will never return ( and I visit fort worth many times a year on business). My company will definitely hear my complaints and will never put myself or any other members of our company up in this hotel ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r149845214-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>149845214</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>This is the worse hotel experience I've had in my life!!!!!!!</t>
+  </si>
+  <si>
+    <t>The rooms were dirty , smell like p... And the service was terribe we stay 3 nigth I won't do it again. We couldn't take a shower because no hoy water at all for 2 days. I ask for a discount for this matter and they said it was not there problem. I will never stay here in my life even if it was the only hotel I rather stay in my car.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r148396476-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>148396476</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>BED BUGS</t>
+  </si>
+  <si>
+    <t>American Airlines sent us to this hotel when, due to their fault, our flight connection could not be made.  This place is old, but lobby looked like it might be okay for an overnight.  First room they sent us too had not been cleaned after the prior guest.  Okay, honest mistake.  Second room smelled, white towels were brown/gray/dingy, carpet was old and dirty.  Two double beds.  One had stains on the sheets.  At this point I am not happy.  We walked to Starbucks next door and when we came back I started googling how to tell if there were bed bugs.  Sure enough, they were there and crawling around.  Needless to say we left immediately.  Not even an apology from the front desk.  They offered us another room...LOL.  Have contacted American airlines and haven't heard back from them yet.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>American Airlines sent us to this hotel when, due to their fault, our flight connection could not be made.  This place is old, but lobby looked like it might be okay for an overnight.  First room they sent us too had not been cleaned after the prior guest.  Okay, honest mistake.  Second room smelled, white towels were brown/gray/dingy, carpet was old and dirty.  Two double beds.  One had stains on the sheets.  At this point I am not happy.  We walked to Starbucks next door and when we came back I started googling how to tell if there were bed bugs.  Sure enough, they were there and crawling around.  Needless to say we left immediately.  Not even an apology from the front desk.  They offered us another room...LOL.  Have contacted American airlines and haven't heard back from them yet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r143737078-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>143737078</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>American Airlines needs a better hotel agreement</t>
+  </si>
+  <si>
+    <t>Like some other reviewers, I was stuck here because AA made me miss my connection.  Had to wait 1 1/2 hrs for someone to show up with a shuttle to bring us (including a mom with her baby) to the hotel.  It's located right next to the highway, so be prepared for traffic noise all night.  I could also hear every word my neighbor was saying because the walls are so thin.  Room is not very clean, and the staff was unfriendly.  There is hair on one of the beds that does not belong to me - disgusting.I hope the money AA saved by having us stay here was worth losing business.  They don't even send their flight crews to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Like some other reviewers, I was stuck here because AA made me miss my connection.  Had to wait 1 1/2 hrs for someone to show up with a shuttle to bring us (including a mom with her baby) to the hotel.  It's located right next to the highway, so be prepared for traffic noise all night.  I could also hear every word my neighbor was saying because the walls are so thin.  Room is not very clean, and the staff was unfriendly.  There is hair on one of the beds that does not belong to me - disgusting.I hope the money AA saved by having us stay here was worth losing business.  They don't even send their flight crews to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r143287985-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>143287985</t>
+  </si>
+  <si>
+    <t>10/20/2012</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>Stayed here 3 nights. Room was clean and inviting, bed comfortable. Was able to sleep in as it was relatively quiet and the window coverings kept the room dark. Staff friendly and helpful. Within walking distance of three restaurants.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r140529303-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>140529303</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>Great beds and great location.</t>
+  </si>
+  <si>
+    <t>This is a well kept property, nothing pretentious about it. You get what you pay for and then some. Our room was very clean and everything worked properly. The beds were some of the best and most comfortable that I've encountered in any hotel in recent memory. Nice staff, very friendly. We never had any issues at all.  The only thing I would suggest to add a little variety to the breakfast bar, that's all.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r139834862-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>139834862</t>
+  </si>
+  <si>
+    <t>09/09/2012</t>
+  </si>
+  <si>
+    <t>If only I had read the reviews here</t>
+  </si>
+  <si>
+    <t>If I HAD read the reviews I would never have booked this hotel. When will I learn?
+We were in town for the Bedford Blues and BBQ Festival (where we had a great time) and booked this hotel for 2 nights because of the close proximty and it was, after all, a Choice Hotel. Yes, there is a great deal of highway construction going on but that is hardly the fault of the various merchants who are, no doubt, losing revenue because it is so difficult to access their businesses.  We requested a king-smoking-downstairs which is becoming harder and harder to find. We also were told at 1:30 that we could not check in before 3PM. When we came back we were were quickly checked in. The room itself was fine with exception of the dirty carpet, as evidenced on the bottoms of my feet at bedtime. The air conditioning worked very well, the linen was fine and we appreciated the desk and Wi-Fi access.  Only complaint so far was that the toilet did not want to flush very well.
+The next morning we got up earlier than we really wanted to in order to take advantage of the breakfast.......I wish I hadn't bothered.  The whole breakfast room is set up wierd. Why would anyone put the eggs &amp; sausage between the waffle batter and the waffle iron? We could not even get to the hot food for the folks...If I HAD read the reviews I would never have booked this hotel. When will I learn?We were in town for the Bedford Blues and BBQ Festival (where we had a great time) and booked this hotel for 2 nights because of the close proximty and it was, after all, a Choice Hotel. Yes, there is a great deal of highway construction going on but that is hardly the fault of the various merchants who are, no doubt, losing revenue because it is so difficult to access their businesses.  We requested a king-smoking-downstairs which is becoming harder and harder to find. We also were told at 1:30 that we could not check in before 3PM. When we came back we were were quickly checked in. The room itself was fine with exception of the dirty carpet, as evidenced on the bottoms of my feet at bedtime. The air conditioning worked very well, the linen was fine and we appreciated the desk and Wi-Fi access.  Only complaint so far was that the toilet did not want to flush very well.The next morning we got up earlier than we really wanted to in order to take advantage of the breakfast.......I wish I hadn't bothered.  The whole breakfast room is set up wierd. Why would anyone put the eggs &amp; sausage between the waffle batter and the waffle iron? We could not even get to the hot food for the folks standing there with their little cups of batter waiting on their turn at the waffle iron. We decided to just give up and eat the cold items. There were ONLY 4 little mini muffins left along with some dired up bread for toast. We took those and went back to the room only to discover that they were cornbread! Really??? Who eats cornbread for breakfast? We went next door to Denny's.We had left the room at 8:30 for breakfast. When we returned at 11 the room had not been cleaned. When we returned at 2:30 the room had still not been cleaned. I called the front desk and the girl working the desk said she would call housekeeping and call me back.  She didn't so I called her again and requested to speak with management-that never happened. When she did not call back I went looking for the housekeeper. Of course she did not speak English so I found another housekeeper with poor but understandable English but she didn't seem concerned. When I had not had a call back by 3PM I called the front desk again and got a different person (of course! shift change!). This very nice lady said she had not been informed by oral or written report that there was an unresolved problem. I am furious at this point. My husband talked to her and told her that if our room wasn't to be cleaned we would prefer to just leave (she had already told us that all the housekeepers had left). She assured us that would be fine, we would not be charged for the 2nd night and that she understood. Very nice. As we were packing up the car there was a knock at the door...housekeeping! Are you kidding me???? We told them we were leaving and would be out of their way in 10 minutes. At check-out the clerk was very nice and provided us with a business card with the managers name. The only thing this manager is managing is to take home a paycheck. We would never, ever stay here again. This hotel could be OK under different management but as long as Karen Lugo is managing I would not stay here if SHE paid ME the $90 we wasted here.MoreShow less</t>
+  </si>
+  <si>
+    <t>If I HAD read the reviews I would never have booked this hotel. When will I learn?
+We were in town for the Bedford Blues and BBQ Festival (where we had a great time) and booked this hotel for 2 nights because of the close proximty and it was, after all, a Choice Hotel. Yes, there is a great deal of highway construction going on but that is hardly the fault of the various merchants who are, no doubt, losing revenue because it is so difficult to access their businesses.  We requested a king-smoking-downstairs which is becoming harder and harder to find. We also were told at 1:30 that we could not check in before 3PM. When we came back we were were quickly checked in. The room itself was fine with exception of the dirty carpet, as evidenced on the bottoms of my feet at bedtime. The air conditioning worked very well, the linen was fine and we appreciated the desk and Wi-Fi access.  Only complaint so far was that the toilet did not want to flush very well.
+The next morning we got up earlier than we really wanted to in order to take advantage of the breakfast.......I wish I hadn't bothered.  The whole breakfast room is set up wierd. Why would anyone put the eggs &amp; sausage between the waffle batter and the waffle iron? We could not even get to the hot food for the folks...If I HAD read the reviews I would never have booked this hotel. When will I learn?We were in town for the Bedford Blues and BBQ Festival (where we had a great time) and booked this hotel for 2 nights because of the close proximty and it was, after all, a Choice Hotel. Yes, there is a great deal of highway construction going on but that is hardly the fault of the various merchants who are, no doubt, losing revenue because it is so difficult to access their businesses.  We requested a king-smoking-downstairs which is becoming harder and harder to find. We also were told at 1:30 that we could not check in before 3PM. When we came back we were were quickly checked in. The room itself was fine with exception of the dirty carpet, as evidenced on the bottoms of my feet at bedtime. The air conditioning worked very well, the linen was fine and we appreciated the desk and Wi-Fi access.  Only complaint so far was that the toilet did not want to flush very well.The next morning we got up earlier than we really wanted to in order to take advantage of the breakfast.......I wish I hadn't bothered.  The whole breakfast room is set up wierd. Why would anyone put the eggs &amp; sausage between the waffle batter and the waffle iron? We could not even get to the hot food for the folks standing there with their little cups of batter waiting on their turn at the waffle iron. We decided to just give up and eat the cold items. There were ONLY 4 little mini muffins left along with some dired up bread for toast. We took those and went back to the room only to discover that they were cornbread! Really??? Who eats cornbread for breakfast? We went next door to Denny's.We had left the room at 8:30 for breakfast. When we returned at 11 the room had not been cleaned. When we returned at 2:30 the room had still not been cleaned. I called the front desk and the girl working the desk said she would call housekeeping and call me back.  She didn't so I called her again and requested to speak with management-that never happened. When she did not call back I went looking for the housekeeper. Of course she did not speak English so I found another housekeeper with poor but understandable English but she didn't seem concerned. When I had not had a call back by 3PM I called the front desk again and got a different person (of course! shift change!). This very nice lady said she had not been informed by oral or written report that there was an unresolved problem. I am furious at this point. My husband talked to her and told her that if our room wasn't to be cleaned we would prefer to just leave (she had already told us that all the housekeepers had left). She assured us that would be fine, we would not be charged for the 2nd night and that she understood. Very nice. As we were packing up the car there was a knock at the door...housekeeping! Are you kidding me???? We told them we were leaving and would be out of their way in 10 minutes. At check-out the clerk was very nice and provided us with a business card with the managers name. The only thing this manager is managing is to take home a paycheck. We would never, ever stay here again. This hotel could be OK under different management but as long as Karen Lugo is managing I would not stay here if SHE paid ME the $90 we wasted here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r139275564-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>139275564</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Next time I will sleep in a tent !!!!</t>
+  </si>
+  <si>
+    <t>I requested a smoking room which I did get but upon arrival to this room, the a/c wasn't working properly and the requested fridge was not in the room. They moved me to another room, a/c worked but it was a non smoking room and I still did not have a fridge/microwave. Maintenance was to bring me a fridge but he was waiting for a key to get me one. I was told I HAD to wait in my room for him to show up. What maintenance man doesn't have a key to get supplies??? I waited two hours, for the fridge and microwave so I could fix my dinner,, Long day and I was very hungry so I called the front desk numerous times, and never did get the fridge/microwave that night. I had to leave the generator running all night on my bus to keep my food cold. Costing me a lot in fuel!! Fuel at 4.00 a gallon, a gallon an hour,, you figure it out !! I finally got the fridge the next day after MY telling the maintenance man!! But guess what??? I got charged for 3 days of using a fridge when I only had it for two!!! and  the night and Morning clerk Knew I never got it the 1st night..
+Since I was now in a non smoking room, I had to go outside my door to smoke. Inadequate lighting at night...I requested a smoking room which I did get but upon arrival to this room, the a/c wasn't working properly and the requested fridge was not in the room. They moved me to another room, a/c worked but it was a non smoking room and I still did not have a fridge/microwave. Maintenance was to bring me a fridge but he was waiting for a key to get me one. I was told I HAD to wait in my room for him to show up. What maintenance man doesn't have a key to get supplies??? I waited two hours, for the fridge and microwave so I could fix my dinner,, Long day and I was very hungry so I called the front desk numerous times, and never did get the fridge/microwave that night. I had to leave the generator running all night on my bus to keep my food cold. Costing me a lot in fuel!! Fuel at 4.00 a gallon, a gallon an hour,, you figure it out !! I finally got the fridge the next day after MY telling the maintenance man!! But guess what??? I got charged for 3 days of using a fridge when I only had it for two!!! and  the night and Morning clerk Knew I never got it the 1st night..Since I was now in a non smoking room, I had to go outside my door to smoke. Inadequate lighting at night hindered me from seeing hundreds of red ants all over the walkway in front of my door resulting in me getting stung several times on my feet, ouch ouch. More then 3/4 of the outside lights where out along the rooms. That’s very unsafe at night!!I Went to shower and shave, and there was no drainage! The full sink from me shaving did not drain until the following morning.The striker plate on my door was falling off which prevents you from properly locking the door. This is just on the first day!!!Went to the front desk the second morning around 8a.m. to speak to the Manager and was told she would be there around 10. The desk clerk made a list of all my complaints and she would give it to the maintenance man. I told her I wanted the Manager to call me when she got in. The desk clerk said she would give the Manager my message. I have yet to hear from the Manager!! I found the maintenance man myself, and asked him if he knew of my complaints, to which he replied that he didn't. He started working on all the issues.  The desk clerk came around to find out if the issues were being taken care of. At that time, I asked her where the Manager was, she said that she took care of the complaints. I told her I didn't care that I wanted to talk to the Manager. I never did get a phone call, or any conversation at all, from the Manager. I would never stay at the motel again and I will certainly make sure that everyone I know is aware of how I was treated here!! This place is the worst motel I have ever stayed in!!There is so much more that I could say but I am tired of typing !!!  Only good thing is next door you have a Starbucks and a Denny’s and several others restaurants.. Its Not bus friendly as far as parking goes and there is allot of road construction on 183 making it hard to access this dump. I had to stay here because there were no other available rooms in the Arlington Texas  area.WHAT A NIGHTMARE!!and shame on the Managment and Owners of this Motel !!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>I requested a smoking room which I did get but upon arrival to this room, the a/c wasn't working properly and the requested fridge was not in the room. They moved me to another room, a/c worked but it was a non smoking room and I still did not have a fridge/microwave. Maintenance was to bring me a fridge but he was waiting for a key to get me one. I was told I HAD to wait in my room for him to show up. What maintenance man doesn't have a key to get supplies??? I waited two hours, for the fridge and microwave so I could fix my dinner,, Long day and I was very hungry so I called the front desk numerous times, and never did get the fridge/microwave that night. I had to leave the generator running all night on my bus to keep my food cold. Costing me a lot in fuel!! Fuel at 4.00 a gallon, a gallon an hour,, you figure it out !! I finally got the fridge the next day after MY telling the maintenance man!! But guess what??? I got charged for 3 days of using a fridge when I only had it for two!!! and  the night and Morning clerk Knew I never got it the 1st night..
+Since I was now in a non smoking room, I had to go outside my door to smoke. Inadequate lighting at night...I requested a smoking room which I did get but upon arrival to this room, the a/c wasn't working properly and the requested fridge was not in the room. They moved me to another room, a/c worked but it was a non smoking room and I still did not have a fridge/microwave. Maintenance was to bring me a fridge but he was waiting for a key to get me one. I was told I HAD to wait in my room for him to show up. What maintenance man doesn't have a key to get supplies??? I waited two hours, for the fridge and microwave so I could fix my dinner,, Long day and I was very hungry so I called the front desk numerous times, and never did get the fridge/microwave that night. I had to leave the generator running all night on my bus to keep my food cold. Costing me a lot in fuel!! Fuel at 4.00 a gallon, a gallon an hour,, you figure it out !! I finally got the fridge the next day after MY telling the maintenance man!! But guess what??? I got charged for 3 days of using a fridge when I only had it for two!!! and  the night and Morning clerk Knew I never got it the 1st night..Since I was now in a non smoking room, I had to go outside my door to smoke. Inadequate lighting at night hindered me from seeing hundreds of red ants all over the walkway in front of my door resulting in me getting stung several times on my feet, ouch ouch. More then 3/4 of the outside lights where out along the rooms. That’s very unsafe at night!!I Went to shower and shave, and there was no drainage! The full sink from me shaving did not drain until the following morning.The striker plate on my door was falling off which prevents you from properly locking the door. This is just on the first day!!!Went to the front desk the second morning around 8a.m. to speak to the Manager and was told she would be there around 10. The desk clerk made a list of all my complaints and she would give it to the maintenance man. I told her I wanted the Manager to call me when she got in. The desk clerk said she would give the Manager my message. I have yet to hear from the Manager!! I found the maintenance man myself, and asked him if he knew of my complaints, to which he replied that he didn't. He started working on all the issues.  The desk clerk came around to find out if the issues were being taken care of. At that time, I asked her where the Manager was, she said that she took care of the complaints. I told her I didn't care that I wanted to talk to the Manager. I never did get a phone call, or any conversation at all, from the Manager. I would never stay at the motel again and I will certainly make sure that everyone I know is aware of how I was treated here!! This place is the worst motel I have ever stayed in!!There is so much more that I could say but I am tired of typing !!!  Only good thing is next door you have a Starbucks and a Denny’s and several others restaurants.. Its Not bus friendly as far as parking goes and there is allot of road construction on 183 making it hard to access this dump. I had to stay here because there were no other available rooms in the Arlington Texas  area.WHAT A NIGHTMARE!!and shame on the Managment and Owners of this Motel !!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r137114891-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>137114891</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>hotel needs maintenance</t>
+  </si>
+  <si>
+    <t>I was at the hotel in July and it needs maintenance.  I can no longer recommend it.  The air conditioning broke in the meeting room as well as the toilet in the lobby and the toilet in the suite where they moved my class.  The refrigertor in the suite also was broken and my food spoiled.  And there is a lot of road construction on 183 making it hard to get to luch anywhere west of the hotel.  My shower broke and they fixed it.  The pool was dirty from a storm.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r134662389-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>134662389</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Toilets need repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I attended a class here and the air conditioning didn't work so we had to switch rooms, and the toilet in the room and in the lobby broke. The hotel posted a sign on the lobby restroom saying it was not to be used by folks in the class. Hotel is old, and needs repairs. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r129859682-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>129859682</t>
+  </si>
+  <si>
+    <t>05/13/2012</t>
+  </si>
+  <si>
+    <t>Stayed here lots of times over years and like it</t>
+  </si>
+  <si>
+    <t>I have been stayng at this hotel for several nights at a time a couple of times a year since 2006 and I like it.  The rooms are clean.  The beds and pillows are comfortable.  They have a hot breakfast with eggs, waffles, sausages, and all the cold stuff like cereal, muffins, yogurt, and toast.  The hotel staff is friendly and nice to me.  The rates are very good.  When there has been something that has been broken, they fix it or move me to another room.  I always stay on the far back side of the property 2nd floor and it is very quiet.  I enjoy hearing the birds sing and the view of the fields.  This hotel is not very busy so it is plenty quiet - no worries about people keeping you up at night.  I always feel safe here and walk around the hotel for exercise at night.  And there is a pool in season that I enjoy.  It is only 7 min. from DFW airport so I can finish my class and fly out.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>I have been stayng at this hotel for several nights at a time a couple of times a year since 2006 and I like it.  The rooms are clean.  The beds and pillows are comfortable.  They have a hot breakfast with eggs, waffles, sausages, and all the cold stuff like cereal, muffins, yogurt, and toast.  The hotel staff is friendly and nice to me.  The rates are very good.  When there has been something that has been broken, they fix it or move me to another room.  I always stay on the far back side of the property 2nd floor and it is very quiet.  I enjoy hearing the birds sing and the view of the fields.  This hotel is not very busy so it is plenty quiet - no worries about people keeping you up at night.  I always feel safe here and walk around the hotel for exercise at night.  And there is a pool in season that I enjoy.  It is only 7 min. from DFW airport so I can finish my class and fly out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r128352764-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>128352764</t>
+  </si>
+  <si>
+    <t>04/22/2012</t>
+  </si>
+  <si>
+    <t>Nothing special</t>
+  </si>
+  <si>
+    <t>I would have never booked this hotel, but had no choice since was booked there by an associate when we travelled together.  It is actually a typical average motel.  Nothing wrong with it, but nothing to write home about either.  The free breakfast is mediocre at best and there is no one there to help if you need anything.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r117050116-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>117050116</t>
+  </si>
+  <si>
+    <t>08/21/2011</t>
+  </si>
+  <si>
+    <t>Find something else</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Got put up here for one night by American Airlines when late flight made us miss our connection. The shuttle driver to/from the airport is a rude and obnoxious-- beware. Room was fine but only access from outdoors and it was over 100 degrees in Dallas so you sweat just walking to your room and at night we had to run the shower for 30 mins before we got hot water. I can't imagine that anyone would actually pay to stay here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r116628185-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>116628185</t>
+  </si>
+  <si>
+    <t>08/12/2011</t>
+  </si>
+  <si>
+    <t>Worst Hotel I Have Ever Styed In</t>
+  </si>
+  <si>
+    <t>Like many others, I was one of the unsuspecting "suckers" sent here by American Airlines when my flight had mechanical problems.  I arrived around 9 pm and informed the Desk CLerk that I had a 6:26 am flight the next day.  She told me that the first shuttle departed at 5:00 and I would need to be there at 4:50.  I then saw her put my room number down on the shuttle manifest list for 5:00 am.  I got my key and began walking to my room.  There were 6 of us on the shuttle sent by American and I was the first to get my key.  All of us were sent to rooms at the very back of the hotel.  The exterior corridors are very dimly lit.  As I was walking, I noticed that the pool was full of leaves and plant debris, but there were no trees on the property.  Thankfully, I had no plans to swim.  As I turned the corner at the back of the hotel, I noticed three men in their early 20s drinking and smoking cigarettes outside their room.  I walked back and told the two female guests that I was concerned for their safety and that I would walk them to their rooms if they would like. Both were very thankful and took me up on the offer.  After ensuring that they were safely in their rooms, I went to my room and...Like many others, I was one of the unsuspecting "suckers" sent here by American Airlines when my flight had mechanical problems.  I arrived around 9 pm and informed the Desk CLerk that I had a 6:26 am flight the next day.  She told me that the first shuttle departed at 5:00 and I would need to be there at 4:50.  I then saw her put my room number down on the shuttle manifest list for 5:00 am.  I got my key and began walking to my room.  There were 6 of us on the shuttle sent by American and I was the first to get my key.  All of us were sent to rooms at the very back of the hotel.  The exterior corridors are very dimly lit.  As I was walking, I noticed that the pool was full of leaves and plant debris, but there were no trees on the property.  Thankfully, I had no plans to swim.  As I turned the corner at the back of the hotel, I noticed three men in their early 20s drinking and smoking cigarettes outside their room.  I walked back and told the two female guests that I was concerned for their safety and that I would walk them to their rooms if they would like. Both were very thankful and took me up on the offer.  After ensuring that they were safely in their rooms, I went to my room and was appalled.  The carpet was stained, the walls were moldy and cracked, the room smelled as if whatever foul smells were in there were being covered with way too much air frshener.  I set my alarm for 4:00 am and went to sleep.  When I woke up at 4:00 and turned on the light, cockroaches and crickets scattered across the floor.  I quickly showered and dressed thankful to be leaving,  I checked out and asked the Desk Clerk about where I should meet the shuttle.  He looked at my key card and told me that I was not scheduled for the 5:00 am shuttle. I told him that there must be a mistake as I watched the Desk Clerk put my room number down for the shuttle.  He told me that there was no mistake and that he could not explain why I was not on the list but that I would need to get a cab and pay myself for my trip back to DFW.  I have complained to American Airlines and can assure you that I will do everything that I can to keep from flying on American again.  In fact, when I fly to an city only served by American, I will fly to the next closest city served by another airline and drive the remainder of the route.If anyone ever has an issue with criminal activity at this hotel, I have contacted American and informed themthat this hotel is not safe.  I would be willing to testify on your behalf against them if they continue to send unsuspecting passengers here.WHATEVER YOU DO, DO NOT STAY AT THIS HOTEL!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>Like many others, I was one of the unsuspecting "suckers" sent here by American Airlines when my flight had mechanical problems.  I arrived around 9 pm and informed the Desk CLerk that I had a 6:26 am flight the next day.  She told me that the first shuttle departed at 5:00 and I would need to be there at 4:50.  I then saw her put my room number down on the shuttle manifest list for 5:00 am.  I got my key and began walking to my room.  There were 6 of us on the shuttle sent by American and I was the first to get my key.  All of us were sent to rooms at the very back of the hotel.  The exterior corridors are very dimly lit.  As I was walking, I noticed that the pool was full of leaves and plant debris, but there were no trees on the property.  Thankfully, I had no plans to swim.  As I turned the corner at the back of the hotel, I noticed three men in their early 20s drinking and smoking cigarettes outside their room.  I walked back and told the two female guests that I was concerned for their safety and that I would walk them to their rooms if they would like. Both were very thankful and took me up on the offer.  After ensuring that they were safely in their rooms, I went to my room and...Like many others, I was one of the unsuspecting "suckers" sent here by American Airlines when my flight had mechanical problems.  I arrived around 9 pm and informed the Desk CLerk that I had a 6:26 am flight the next day.  She told me that the first shuttle departed at 5:00 and I would need to be there at 4:50.  I then saw her put my room number down on the shuttle manifest list for 5:00 am.  I got my key and began walking to my room.  There were 6 of us on the shuttle sent by American and I was the first to get my key.  All of us were sent to rooms at the very back of the hotel.  The exterior corridors are very dimly lit.  As I was walking, I noticed that the pool was full of leaves and plant debris, but there were no trees on the property.  Thankfully, I had no plans to swim.  As I turned the corner at the back of the hotel, I noticed three men in their early 20s drinking and smoking cigarettes outside their room.  I walked back and told the two female guests that I was concerned for their safety and that I would walk them to their rooms if they would like. Both were very thankful and took me up on the offer.  After ensuring that they were safely in their rooms, I went to my room and was appalled.  The carpet was stained, the walls were moldy and cracked, the room smelled as if whatever foul smells were in there were being covered with way too much air frshener.  I set my alarm for 4:00 am and went to sleep.  When I woke up at 4:00 and turned on the light, cockroaches and crickets scattered across the floor.  I quickly showered and dressed thankful to be leaving,  I checked out and asked the Desk Clerk about where I should meet the shuttle.  He looked at my key card and told me that I was not scheduled for the 5:00 am shuttle. I told him that there must be a mistake as I watched the Desk Clerk put my room number down for the shuttle.  He told me that there was no mistake and that he could not explain why I was not on the list but that I would need to get a cab and pay myself for my trip back to DFW.  I have complained to American Airlines and can assure you that I will do everything that I can to keep from flying on American again.  In fact, when I fly to an city only served by American, I will fly to the next closest city served by another airline and drive the remainder of the route.If anyone ever has an issue with criminal activity at this hotel, I have contacted American and informed themthat this hotel is not safe.  I would be willing to testify on your behalf against them if they continue to send unsuspecting passengers here.WHATEVER YOU DO, DO NOT STAY AT THIS HOTEL!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r102851785-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>102851785</t>
+  </si>
+  <si>
+    <t>04/04/2011</t>
+  </si>
+  <si>
+    <t>American Airlines Must Get These Rooms for Almost Nothing Because That's What They're Worth</t>
+  </si>
+  <si>
+    <t>I'd like to invite American Airlines' CEO to stay a night in this hotel that his company put us up in last night.  With so many newer, clean accommodations close to DFW, why on earth does AA use this awful, outdated property?  I can only guess that they get the rooms for next to nothing, because that's what they are worth.  Like the previous reviewer, we stayed at the Quality Inn Euless courtesy of a voucher from AA.  After nearly an hour wait for the Quality Inn shuttle (which was as dirty and awful as the hotel) we were taken to a run-down, flea-bag of a motel whose best days were decades ago.  The shuttle driver barely acknowledged her passengers and any attempt at conversation was met with surly, one-word responses.  The motel parking lot was basically deserted; my guess is that the only patrons on most nights are those poor, unsuspecting souls sent there by American.  External walkways were dimly lit, there was pealing paint and rust on the outdoor stairs.  Our room had the distinctive smell of an attempt to cover up odors with the sickly sweet scent of a continuous air freshener.  Although the linens appeared clean, we wore socks in the room due to the questionable condition of the carpet.  The dead spider and rolly-polly bug in the bathroom were a nice touch.  The exhaust vent in the bathroom was blocked with dirt and dust.  the...I'd like to invite American Airlines' CEO to stay a night in this hotel that his company put us up in last night.  With so many newer, clean accommodations close to DFW, why on earth does AA use this awful, outdated property?  I can only guess that they get the rooms for next to nothing, because that's what they are worth.  Like the previous reviewer, we stayed at the Quality Inn Euless courtesy of a voucher from AA.  After nearly an hour wait for the Quality Inn shuttle (which was as dirty and awful as the hotel) we were taken to a run-down, flea-bag of a motel whose best days were decades ago.  The shuttle driver barely acknowledged her passengers and any attempt at conversation was met with surly, one-word responses.  The motel parking lot was basically deserted; my guess is that the only patrons on most nights are those poor, unsuspecting souls sent there by American.  External walkways were dimly lit, there was pealing paint and rust on the outdoor stairs.  Our room had the distinctive smell of an attempt to cover up odors with the sickly sweet scent of a continuous air freshener.  Although the linens appeared clean, we wore socks in the room due to the questionable condition of the carpet.  The dead spider and rolly-polly bug in the bathroom were a nice touch.  The exhaust vent in the bathroom was blocked with dirt and dust.  the inside of the air conditioner was covered with dust, mold and what appeared to be insect droppings  You could see daylight around the external door, hardly a secure feeling.  The free continental breakfast was not for the faint of heart.  Breakfast hours were advertised as 5:00 to 9:00 am.  We arrived at about 8:00 am.  No one appeared to be in attendance to clean up or replenish supplies.  Boiled eggs with cracked shells sat in lukewarm water just waiting for an unsuspecting victim.  Congealed country gravy and exactly 1/2 patty of sausage.  A fruit bowl with one apple.  A juice machine that looked as if it had never been wiped down.  The only edible item was the make-your-own waffle in the shape of the state of Texas.  We took a peek at the outdoor (cess)pool before we left -- cloudy, uninviting water full of leaves and twigs.  Again we had the surly van driver going back to the airport.  There were six of us waiting for the van back to the airport and her only words were, "You ready?"  Is this American Airlines' idea of acceptable accommodations for displaced passengers?  Because there was nothing of quality about this inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>I'd like to invite American Airlines' CEO to stay a night in this hotel that his company put us up in last night.  With so many newer, clean accommodations close to DFW, why on earth does AA use this awful, outdated property?  I can only guess that they get the rooms for next to nothing, because that's what they are worth.  Like the previous reviewer, we stayed at the Quality Inn Euless courtesy of a voucher from AA.  After nearly an hour wait for the Quality Inn shuttle (which was as dirty and awful as the hotel) we were taken to a run-down, flea-bag of a motel whose best days were decades ago.  The shuttle driver barely acknowledged her passengers and any attempt at conversation was met with surly, one-word responses.  The motel parking lot was basically deserted; my guess is that the only patrons on most nights are those poor, unsuspecting souls sent there by American.  External walkways were dimly lit, there was pealing paint and rust on the outdoor stairs.  Our room had the distinctive smell of an attempt to cover up odors with the sickly sweet scent of a continuous air freshener.  Although the linens appeared clean, we wore socks in the room due to the questionable condition of the carpet.  The dead spider and rolly-polly bug in the bathroom were a nice touch.  The exhaust vent in the bathroom was blocked with dirt and dust.  the...I'd like to invite American Airlines' CEO to stay a night in this hotel that his company put us up in last night.  With so many newer, clean accommodations close to DFW, why on earth does AA use this awful, outdated property?  I can only guess that they get the rooms for next to nothing, because that's what they are worth.  Like the previous reviewer, we stayed at the Quality Inn Euless courtesy of a voucher from AA.  After nearly an hour wait for the Quality Inn shuttle (which was as dirty and awful as the hotel) we were taken to a run-down, flea-bag of a motel whose best days were decades ago.  The shuttle driver barely acknowledged her passengers and any attempt at conversation was met with surly, one-word responses.  The motel parking lot was basically deserted; my guess is that the only patrons on most nights are those poor, unsuspecting souls sent there by American.  External walkways were dimly lit, there was pealing paint and rust on the outdoor stairs.  Our room had the distinctive smell of an attempt to cover up odors with the sickly sweet scent of a continuous air freshener.  Although the linens appeared clean, we wore socks in the room due to the questionable condition of the carpet.  The dead spider and rolly-polly bug in the bathroom were a nice touch.  The exhaust vent in the bathroom was blocked with dirt and dust.  the inside of the air conditioner was covered with dust, mold and what appeared to be insect droppings  You could see daylight around the external door, hardly a secure feeling.  The free continental breakfast was not for the faint of heart.  Breakfast hours were advertised as 5:00 to 9:00 am.  We arrived at about 8:00 am.  No one appeared to be in attendance to clean up or replenish supplies.  Boiled eggs with cracked shells sat in lukewarm water just waiting for an unsuspecting victim.  Congealed country gravy and exactly 1/2 patty of sausage.  A fruit bowl with one apple.  A juice machine that looked as if it had never been wiped down.  The only edible item was the make-your-own waffle in the shape of the state of Texas.  We took a peek at the outdoor (cess)pool before we left -- cloudy, uninviting water full of leaves and twigs.  Again we had the surly van driver going back to the airport.  There were six of us waiting for the van back to the airport and her only words were, "You ready?"  Is this American Airlines' idea of acceptable accommodations for displaced passengers?  Because there was nothing of quality about this inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r85780386-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>85780386</t>
+  </si>
+  <si>
+    <t>11/02/2010</t>
+  </si>
+  <si>
+    <t>Unpleasant experience</t>
+  </si>
+  <si>
+    <t>We stayed at this Quality Inn because of having missed a flight out of DFW.  We received a voucher for the accommodations from American Airlines.  The biggest plus was the friendliness of the front desk staff.  Also, the nearby Dennys has a terrific waitress--Prudie.  Other than that, is was not a pleasant experience.  Granted, we were very tired, having flown 11+ hours from Europe, having missed our connecting flight and having been told that there would be no seats for us until Tuesday (this was Sunday night), andhaving waited approximately 45 minutes for the hotel shuttle at DFW, etc.  Worst of all, when we finally made it to the head of the line to check in (at about 11:30 p.m.), we were told that there were no more non-smoking rooms.  The room we were given smelled worse than terrible.  The bathtub had been painted with some sort of white material that rendered it was streaky and strange.  The smell of stale cigarettes was the worst, however.  I cannot believe that people can actually sleep in such rooms, even smokers.  The room--and the motel itself--were very careworn and in need of extensive renovation.  The breakfast provided was welcome, but marginal.  Even had we been in a "happy place" emotionally and physically, this property was definitely substandard.  Props, however, to the front desk staff for making the best of a difficult situation.  There had been tornadoes in the area earlier in the...We stayed at this Quality Inn because of having missed a flight out of DFW.  We received a voucher for the accommodations from American Airlines.  The biggest plus was the friendliness of the front desk staff.  Also, the nearby Dennys has a terrific waitress--Prudie.  Other than that, is was not a pleasant experience.  Granted, we were very tired, having flown 11+ hours from Europe, having missed our connecting flight and having been told that there would be no seats for us until Tuesday (this was Sunday night), andhaving waited approximately 45 minutes for the hotel shuttle at DFW, etc.  Worst of all, when we finally made it to the head of the line to check in (at about 11:30 p.m.), we were told that there were no more non-smoking rooms.  The room we were given smelled worse than terrible.  The bathtub had been painted with some sort of white material that rendered it was streaky and strange.  The smell of stale cigarettes was the worst, however.  I cannot believe that people can actually sleep in such rooms, even smokers.  The room--and the motel itself--were very careworn and in need of extensive renovation.  The breakfast provided was welcome, but marginal.  Even had we been in a "happy place" emotionally and physically, this property was definitely substandard.  Props, however, to the front desk staff for making the best of a difficult situation.  There had been tornadoes in the area earlier in the day which had wreaked havoc with flight schedules.  We did eventually make it home the following day (Monday), but only by flying via Palm Springs to get to our real destination--Sacramento.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>We stayed at this Quality Inn because of having missed a flight out of DFW.  We received a voucher for the accommodations from American Airlines.  The biggest plus was the friendliness of the front desk staff.  Also, the nearby Dennys has a terrific waitress--Prudie.  Other than that, is was not a pleasant experience.  Granted, we were very tired, having flown 11+ hours from Europe, having missed our connecting flight and having been told that there would be no seats for us until Tuesday (this was Sunday night), andhaving waited approximately 45 minutes for the hotel shuttle at DFW, etc.  Worst of all, when we finally made it to the head of the line to check in (at about 11:30 p.m.), we were told that there were no more non-smoking rooms.  The room we were given smelled worse than terrible.  The bathtub had been painted with some sort of white material that rendered it was streaky and strange.  The smell of stale cigarettes was the worst, however.  I cannot believe that people can actually sleep in such rooms, even smokers.  The room--and the motel itself--were very careworn and in need of extensive renovation.  The breakfast provided was welcome, but marginal.  Even had we been in a "happy place" emotionally and physically, this property was definitely substandard.  Props, however, to the front desk staff for making the best of a difficult situation.  There had been tornadoes in the area earlier in the...We stayed at this Quality Inn because of having missed a flight out of DFW.  We received a voucher for the accommodations from American Airlines.  The biggest plus was the friendliness of the front desk staff.  Also, the nearby Dennys has a terrific waitress--Prudie.  Other than that, is was not a pleasant experience.  Granted, we were very tired, having flown 11+ hours from Europe, having missed our connecting flight and having been told that there would be no seats for us until Tuesday (this was Sunday night), andhaving waited approximately 45 minutes for the hotel shuttle at DFW, etc.  Worst of all, when we finally made it to the head of the line to check in (at about 11:30 p.m.), we were told that there were no more non-smoking rooms.  The room we were given smelled worse than terrible.  The bathtub had been painted with some sort of white material that rendered it was streaky and strange.  The smell of stale cigarettes was the worst, however.  I cannot believe that people can actually sleep in such rooms, even smokers.  The room--and the motel itself--were very careworn and in need of extensive renovation.  The breakfast provided was welcome, but marginal.  Even had we been in a "happy place" emotionally and physically, this property was definitely substandard.  Props, however, to the front desk staff for making the best of a difficult situation.  There had been tornadoes in the area earlier in the day which had wreaked havoc with flight schedules.  We did eventually make it home the following day (Monday), but only by flying via Palm Springs to get to our real destination--Sacramento.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r84013752-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>84013752</t>
+  </si>
+  <si>
+    <t>10/18/2010</t>
+  </si>
+  <si>
+    <t>Will never stay there again</t>
+  </si>
+  <si>
+    <t>There were obvious dried spills on the comforter - not stains - spills that would have come out if it were washed.  Small bugs, some dead, some alive.  Dust in areas that should have been dusted.  Pretty gross.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r60862707-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>60862707</t>
+  </si>
+  <si>
+    <t>04/09/2010</t>
+  </si>
+  <si>
+    <t>what perfect place to stay</t>
+  </si>
+  <si>
+    <t>i was there for my stay it was good and well clean motel with nice customer service i ever had in choice hotel.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1404,2531 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>4</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>71</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s">
+        <v>115</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>90</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>120</v>
+      </c>
+      <c r="K12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>130</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>139</v>
+      </c>
+      <c r="J15" t="s">
+        <v>140</v>
+      </c>
+      <c r="K15" t="s">
+        <v>141</v>
+      </c>
+      <c r="L15" t="s">
+        <v>142</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>145</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>147</v>
+      </c>
+      <c r="L16" t="s">
+        <v>148</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>149</v>
+      </c>
+      <c r="O16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" t="s">
+        <v>152</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
+        <v>154</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>155</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>156</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>163</v>
+      </c>
+      <c r="J19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K19" t="s">
+        <v>165</v>
+      </c>
+      <c r="L19" t="s">
+        <v>166</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>167</v>
+      </c>
+      <c r="O19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" t="s">
+        <v>170</v>
+      </c>
+      <c r="K20" t="s">
+        <v>171</v>
+      </c>
+      <c r="L20" t="s">
+        <v>172</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>173</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" t="s">
+        <v>175</v>
+      </c>
+      <c r="K21" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>183</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>213</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>219</v>
+      </c>
+      <c r="O29" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>233</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>235</v>
+      </c>
+      <c r="K31" t="s">
+        <v>236</v>
+      </c>
+      <c r="L31" t="s">
+        <v>237</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>238</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>240</v>
+      </c>
+      <c r="J32" t="s">
+        <v>241</v>
+      </c>
+      <c r="K32" t="s">
+        <v>242</v>
+      </c>
+      <c r="L32" t="s">
+        <v>243</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>249</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>262</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>263</v>
+      </c>
+      <c r="J36" t="s">
+        <v>264</v>
+      </c>
+      <c r="K36" t="s">
+        <v>265</v>
+      </c>
+      <c r="L36" t="s">
+        <v>266</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>267</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>270</v>
+      </c>
+      <c r="J37" t="s">
+        <v>271</v>
+      </c>
+      <c r="K37" t="s">
+        <v>272</v>
+      </c>
+      <c r="L37" t="s">
+        <v>273</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>274</v>
+      </c>
+      <c r="O37" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>284</v>
+      </c>
+      <c r="J39" t="s">
+        <v>285</v>
+      </c>
+      <c r="K39" t="s">
+        <v>286</v>
+      </c>
+      <c r="L39" t="s">
+        <v>287</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>281</v>
+      </c>
+      <c r="O39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K40" t="s">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s">
+        <v>292</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>293</v>
+      </c>
+      <c r="O40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_570.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_570.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>BrinaLeee</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Yes i made the mistake by booking here and not somewhere expensive considering the fact that i was only sleeping there for about 5 hours. My plan was to get there and shower but that went out the door when i looked at the Shower.. it was disgusting. My friend stayed in the room next to me so i thought it was just my room but hers was like that too :( Everything in my room was out dated...specially the AC. Not gonna lie, customer service there is pretty good but i will NOT be staying there again. This place needs Major remodeling.More</t>
   </si>
   <si>
+    <t>cliffsiler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r403025437-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>A very clean Motel 6 just down the road from my house. I watched this place being renovated twice in 14 years. This is a very clean place BUT it is a bed and TV and a bathroom/Shower. That's it! No coffeemaker in the room no microwave, no fridge and the TV isn't worth the trouble. I only say that because the price was $50! AT A Motel 6!!! I remember a time when people took care of people and now it's a time of how much can I squeeze out of people. The front desk clerk was the most memorable part of my stay. I was remodeling my bathroom and this place was just down the street but I moved on after 1 night here. I won't DO IT HERE AGAIN! Just because I have and can make money doesn't mean I am a carefree spender. I give value at my business and I expect value from others. Especially in my community.More</t>
   </si>
   <si>
+    <t>spence631</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r382196242-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>JJesse1961</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r292574454-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -252,6 +264,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>sammy d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r236469125-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Karla F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r230743526-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>The lobby was nice enough, and the workers friendly.  It was a little disconcerting that the lights were out at night on the exterior of the building though.  The room was quiet, air conditioner worked well, but the carpet had seen better days, and we saw some bugs in the bathroom area.  I probably wouldn't stay again, mainly because of the bugs I saw, but I'm kind of bug averse.  We had an early morning flight, so all we did was sleep.  The beds were clean and comfortable though, so if you are looking for an inexpensive place to stay close to the airport and aren't real picky, this might be your hotel.More</t>
   </si>
   <si>
+    <t>KathyTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r217794237-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -315,6 +336,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Ashley B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r216577247-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -330,6 +354,9 @@
     <t>I stayed here one night for a job interview. The water was either hot or hotter in the shower. The majority of the tv channels barely worked or didn't work. The beds were not very comfortable.  The staff in the office were nice though. The offered to move us to a new room, but it was late in the evening. The toilet ran for several minutes after it was flushed. When you took a shower, rhe water got all over tye floor. The room did not seem to have been cleaned very well either. Don't think I would stay here again.</t>
   </si>
   <si>
+    <t>Kevin V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r213099546-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -351,6 +378,9 @@
     <t>I stayed here on an overnight layover in June 2014.  The guaranteed airport shuttle never came in the evening.  After waiting for an hour, I ended up taking a cab to the hotel, and in the morning it was the same story: The complementary shuttle was not running.  My fares have not been reimbursed.  The night I was there was a nightmare for the guy at the desk.  People had been booked into rooms that had not been cleaned.  As I was checking in, someone came and complained that someone was already sleeping in their hotel room when they arrived.  The manager is absent, and can not be reached.This hotel is unorganized, and poorly managed.  Take your money elsewhere.More</t>
   </si>
   <si>
+    <t>fcrane35</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r201866792-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -372,6 +402,9 @@
     <t>Delta dumped us here and really needs to do a site inspection. The room smelled, the loud floor air conditioner kept me up all nite thumping on and off and the continuous fan setting didn't work. Carpets stained, bedspreads ancient, roaches in the bathroom. YUK!!!!! I had no luggage courtesy of Delta and was afraid to sleep in the bed with no clothes. Cars pull up right to the room and make all kinds of noise. Room is horrible but staff very pleasant and helpful. Agree with another reviewer about the shuttle. We waited an hour for airport pickup and was told each time we called "he just left". Really? the hotel is 3 miles away.More</t>
   </si>
   <si>
+    <t>Betsy99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r198433728-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -393,6 +426,9 @@
     <t>American Airlines flight delays must keep this place in business.  Our flight from San Jose, CA was delayed by 8 hours so we ended up here for a very short (6 hours total) night.  American staff told us the hotel was 20 minutes by shuttle and gave us a number to call for pickup, instead of doing it for us!  We waited about 40 minutes for the shuttle - a group of very tired travelers, all of us freezing in the 20 degree night - and we continued to freeze on the shuttle which had no heat during our 30 minute ride. The return shuttle ride at 5 A.m. was only 20 minutes as advertised!When we arrived at the Quality Inn, the cheerful staff was organized, told us all everything we needed to know as a group and checked us in a just a few minutes.  it was the most thoughtful service we received all day. The front desk staff was helpful also in deciding when we needed to return to DFW.The room was clean and the beds were reasonably comfortable, but due to short stay, I can't comment on much else.More</t>
   </si>
   <si>
+    <t>Amanda D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r197865102-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -414,6 +450,9 @@
     <t>First off I stayed from February 23 to March 18. My husband and I were making arrangements to move out of state so we stayed here until everything was ready in the other state. From the night we checked in until we left the service was POOR. They were over charging my credit card and the manager is a JOKE. THE HOTEL OWED ME $355 and they did not want to pay me back. I had to go back and forth with there corporate bank and my bank and finally received my money back. So I started paying in cash and they were suppose to remove my card from there system and they did not they were taking my cash and still charging my card $514 they owed me a second time. The housekeeping does not clean properly they also take personal items and monies that do not belong to them.  I told the manager on duty and she took the staff word over mine the guess. They give discounts and take them back and give you a made up excuse as to why it happened. This is NOT a home away from home. Tasha , another lady  I forget her name and a young man at the front desk are the only good thing about that HOTEL. In need of NEW MANAGEMENT ASAP.I WILL NOT STAY HERE AGAIN. DO NOT WASTE YOUR HARD EARNED MONEY HERE. RIP OFF. WOULD...First off I stayed from February 23 to March 18. My husband and I were making arrangements to move out of state so we stayed here until everything was ready in the other state. From the night we checked in until we left the service was POOR. They were over charging my credit card and the manager is a JOKE. THE HOTEL OWED ME $355 and they did not want to pay me back. I had to go back and forth with there corporate bank and my bank and finally received my money back. So I started paying in cash and they were suppose to remove my card from there system and they did not they were taking my cash and still charging my card $514 they owed me a second time. The housekeeping does not clean properly they also take personal items and monies that do not belong to them.  I told the manager on duty and she took the staff word over mine the guess. They give discounts and take them back and give you a made up excuse as to why it happened. This is NOT a home away from home. Tasha , another lady  I forget her name and a young man at the front desk are the only good thing about that HOTEL. In need of NEW MANAGEMENT ASAP.I WILL NOT STAY HERE AGAIN. DO NOT WASTE YOUR HARD EARNED MONEY HERE. RIP OFF. WOULD NOT RECOMMEND THIS HOTEL TO ANY ONE.When I checked out the manager asked about my credit card. No sorry for all the inconvenient things we have done. No please come again next time we will be on our A game for your next visit. She sucks. More</t>
   </si>
   <si>
+    <t>Eggewoman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r194970534-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -432,6 +471,9 @@
     <t>The only reason we stayed here was because our American Airline flight home had mechanical problems and this is where they put us.  American Airlines must keep this place in business, since everyone we saw there had an airline voucher.  The shuttle driver was friendly.  The desk attendant was very nice and helpful, but she had only been there a week.  Our first room smelled like cat pee.  Our second room smelled funny, but better than the first.  I was sneezing like crazy by the time we left.  The walls are very thin and we could hear everything in the other rooms.  We didn't even undress.  The do have free breakfast, but we didn't even look at it.  We went back to the airport as soon as we woke up and ate there, but there were restaurants within walking distance.More</t>
   </si>
   <si>
+    <t>black h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r191474434-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -450,6 +492,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Anum K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r187804382-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -468,6 +513,9 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>sam k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r184823527-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>rmartine_10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r183682769-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -504,6 +555,9 @@
     <t>Place is old(er) but like I said, I've stayed in worse.  Our room was 156 and here is what was wrong with it:  Smelled musty, small black ants on tables and bathroom countertop.  Went through lobby to ask a question and lobby had a sewage smell.  Don't know why just got outta there quick.  Here is the good:  Right next door to Starbucks, Denny's and Taco Cabana.  My wife and I walked over to TC and had food and drinks before turning in for the night.  Bed was comfortable, sheets were clean and had plenty of fluffy pillows (5).  In the morning...coffee at Starbucks.  Skipped the free breakfast so can't comment.  Now in all fairness I'd like to add that we didn't complain and had we, who knows, they may have put us in another room?  Either way, believe it or not...I would stay there again but a discount for next visit would have been nice. ;-)More</t>
   </si>
   <si>
+    <t>KJW59</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r179651099-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -537,6 +591,9 @@
     <t>We were in the area for a baseball tournament for a 5-night stay and had a large group. The staff was friendly and accommodating and the group rate was ideal. Beautiful, contemporary,  hotel with clean rooms and comfortable beds.</t>
   </si>
   <si>
+    <t>jazz d</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r173022699-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -552,6 +609,9 @@
     <t>This is a well kept property even though it's a older property , nothing pretentious about it. You get what you pay for and then some.Our room was very clean and everything worked properly. The beds were some of the best and most comfortable that I've encountered in any hotel in recent memory. Nice staff, very friendly. We never had any issues at all.</t>
   </si>
   <si>
+    <t>javimom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r167118701-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -570,6 +630,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Danielle T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r151204546-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -588,6 +651,9 @@
     <t>From the minute we walked in I was grossed out. 1st off I walk in the bathroom and notice the maids didn't bother to clean up the people before us. Their soap was still in the bathtub and the bathtub had a nasty black dinge on the floor of the tub. I mean how much does clorox cost...NOT MUCH. Then I go to get ice. Well as for the ice machine outside, you have to put your room key in to get it to work(must be a sketchy area if they are worried about people stealing ice), but the stupid thing didn't even work anyways. Luckily the ice machine in the lobby worked. I get back to my room and wanted to call the front desk to schedule a wake up call. Well my phone didn't work and didn't even have wires to connect it to an outlet. The tv was super old and had some discoloration but at least it worked. The front desk attendant was so worried about talking to her friend that was there, that she never turned on the movie channel(many hotels these days play movies from the front desk) and you can tell when they have simply forgot about it because a screen saver plays on that channel. I was so tired I just crashed but when I woke up the next morning as I'm getting ready I notice blood stains on one of my...From the minute we walked in I was grossed out. 1st off I walk in the bathroom and notice the maids didn't bother to clean up the people before us. Their soap was still in the bathtub and the bathtub had a nasty black dinge on the floor of the tub. I mean how much does clorox cost...NOT MUCH. Then I go to get ice. Well as for the ice machine outside, you have to put your room key in to get it to work(must be a sketchy area if they are worried about people stealing ice), but the stupid thing didn't even work anyways. Luckily the ice machine in the lobby worked. I get back to my room and wanted to call the front desk to schedule a wake up call. Well my phone didn't work and didn't even have wires to connect it to an outlet. The tv was super old and had some discoloration but at least it worked. The front desk attendant was so worried about talking to her friend that was there, that she never turned on the movie channel(many hotels these days play movies from the front desk) and you can tell when they have simply forgot about it because a screen saver plays on that channel. I was so tired I just crashed but when I woke up the next morning as I'm getting ready I notice blood stains on one of my pillows. WTF? I was mortified I and took the pillow case off threw it on the floor in hopes that they would realize I needed it changed. I would have changed hotels if it was up to me but I'm on business and my company already prepaid for my stay. Well I get back from working all day to find that the maid hadn't cared to take out the trash, when both small trash cans in my room were full. And whoever "cleaned" my room had decided to take my full unopened soda bottle I had bought the night before. This place was horrible and I will never return ( and I visit fort worth many times a year on business). My company will definitely hear my complaints and will never put myself or any other members of our company up in this hotel ever again.More</t>
   </si>
   <si>
+    <t>franps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r149845214-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -603,6 +669,9 @@
     <t>The rooms were dirty , smell like p... And the service was terribe we stay 3 nigth I won't do it again. We couldn't take a shower because no hoy water at all for 2 days. I ask for a discount for this matter and they said it was not there problem. I will never stay here in my life even if it was the only hotel I rather stay in my car.</t>
   </si>
   <si>
+    <t>nhugg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r148396476-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -624,6 +693,9 @@
     <t>American Airlines sent us to this hotel when, due to their fault, our flight connection could not be made.  This place is old, but lobby looked like it might be okay for an overnight.  First room they sent us too had not been cleaned after the prior guest.  Okay, honest mistake.  Second room smelled, white towels were brown/gray/dingy, carpet was old and dirty.  Two double beds.  One had stains on the sheets.  At this point I am not happy.  We walked to Starbucks next door and when we came back I started googling how to tell if there were bed bugs.  Sure enough, they were there and crawling around.  Needless to say we left immediately.  Not even an apology from the front desk.  They offered us another room...LOL.  Have contacted American airlines and haven't heard back from them yet.More</t>
   </si>
   <si>
+    <t>AdventureGirl17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r143737078-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -642,6 +714,9 @@
     <t>Like some other reviewers, I was stuck here because AA made me miss my connection.  Had to wait 1 1/2 hrs for someone to show up with a shuttle to bring us (including a mom with her baby) to the hotel.  It's located right next to the highway, so be prepared for traffic noise all night.  I could also hear every word my neighbor was saying because the walls are so thin.  Room is not very clean, and the staff was unfriendly.  There is hair on one of the beds that does not belong to me - disgusting.I hope the money AA saved by having us stay here was worth losing business.  They don't even send their flight crews to stay here.More</t>
   </si>
   <si>
+    <t>Karen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r143287985-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -660,6 +735,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>Rob R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r140529303-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -676,6 +754,9 @@
   </si>
   <si>
     <t>September 2012</t>
+  </si>
+  <si>
+    <t>qsbfd</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r139834862-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -700,6 +781,9 @@
 The next morning we got up earlier than we really wanted to in order to take advantage of the breakfast.......I wish I hadn't bothered.  The whole breakfast room is set up wierd. Why would anyone put the eggs &amp; sausage between the waffle batter and the waffle iron? We could not even get to the hot food for the folks...If I HAD read the reviews I would never have booked this hotel. When will I learn?We were in town for the Bedford Blues and BBQ Festival (where we had a great time) and booked this hotel for 2 nights because of the close proximty and it was, after all, a Choice Hotel. Yes, there is a great deal of highway construction going on but that is hardly the fault of the various merchants who are, no doubt, losing revenue because it is so difficult to access their businesses.  We requested a king-smoking-downstairs which is becoming harder and harder to find. We also were told at 1:30 that we could not check in before 3PM. When we came back we were were quickly checked in. The room itself was fine with exception of the dirty carpet, as evidenced on the bottoms of my feet at bedtime. The air conditioning worked very well, the linen was fine and we appreciated the desk and Wi-Fi access.  Only complaint so far was that the toilet did not want to flush very well.The next morning we got up earlier than we really wanted to in order to take advantage of the breakfast.......I wish I hadn't bothered.  The whole breakfast room is set up wierd. Why would anyone put the eggs &amp; sausage between the waffle batter and the waffle iron? We could not even get to the hot food for the folks standing there with their little cups of batter waiting on their turn at the waffle iron. We decided to just give up and eat the cold items. There were ONLY 4 little mini muffins left along with some dired up bread for toast. We took those and went back to the room only to discover that they were cornbread! Really??? Who eats cornbread for breakfast? We went next door to Denny's.We had left the room at 8:30 for breakfast. When we returned at 11 the room had not been cleaned. When we returned at 2:30 the room had still not been cleaned. I called the front desk and the girl working the desk said she would call housekeeping and call me back.  She didn't so I called her again and requested to speak with management-that never happened. When she did not call back I went looking for the housekeeper. Of course she did not speak English so I found another housekeeper with poor but understandable English but she didn't seem concerned. When I had not had a call back by 3PM I called the front desk again and got a different person (of course! shift change!). This very nice lady said she had not been informed by oral or written report that there was an unresolved problem. I am furious at this point. My husband talked to her and told her that if our room wasn't to be cleaned we would prefer to just leave (she had already told us that all the housekeepers had left). She assured us that would be fine, we would not be charged for the 2nd night and that she understood. Very nice. As we were packing up the car there was a knock at the door...housekeeping! Are you kidding me???? We told them we were leaving and would be out of their way in 10 minutes. At check-out the clerk was very nice and provided us with a business card with the managers name. The only thing this manager is managing is to take home a paycheck. We would never, ever stay here again. This hotel could be OK under different management but as long as Karen Lugo is managing I would not stay here if SHE paid ME the $90 we wasted here.More</t>
   </si>
   <si>
+    <t>DALE C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r139275564-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -723,6 +807,9 @@
 Since I was now in a non smoking room, I had to go outside my door to smoke. Inadequate lighting at night...I requested a smoking room which I did get but upon arrival to this room, the a/c wasn't working properly and the requested fridge was not in the room. They moved me to another room, a/c worked but it was a non smoking room and I still did not have a fridge/microwave. Maintenance was to bring me a fridge but he was waiting for a key to get me one. I was told I HAD to wait in my room for him to show up. What maintenance man doesn't have a key to get supplies??? I waited two hours, for the fridge and microwave so I could fix my dinner,, Long day and I was very hungry so I called the front desk numerous times, and never did get the fridge/microwave that night. I had to leave the generator running all night on my bus to keep my food cold. Costing me a lot in fuel!! Fuel at 4.00 a gallon, a gallon an hour,, you figure it out !! I finally got the fridge the next day after MY telling the maintenance man!! But guess what??? I got charged for 3 days of using a fridge when I only had it for two!!! and  the night and Morning clerk Knew I never got it the 1st night..Since I was now in a non smoking room, I had to go outside my door to smoke. Inadequate lighting at night hindered me from seeing hundreds of red ants all over the walkway in front of my door resulting in me getting stung several times on my feet, ouch ouch. More then 3/4 of the outside lights where out along the rooms. That’s very unsafe at night!!I Went to shower and shave, and there was no drainage! The full sink from me shaving did not drain until the following morning.The striker plate on my door was falling off which prevents you from properly locking the door. This is just on the first day!!!Went to the front desk the second morning around 8a.m. to speak to the Manager and was told she would be there around 10. The desk clerk made a list of all my complaints and she would give it to the maintenance man. I told her I wanted the Manager to call me when she got in. The desk clerk said she would give the Manager my message. I have yet to hear from the Manager!! I found the maintenance man myself, and asked him if he knew of my complaints, to which he replied that he didn't. He started working on all the issues.  The desk clerk came around to find out if the issues were being taken care of. At that time, I asked her where the Manager was, she said that she took care of the complaints. I told her I didn't care that I wanted to talk to the Manager. I never did get a phone call, or any conversation at all, from the Manager. I would never stay at the motel again and I will certainly make sure that everyone I know is aware of how I was treated here!! This place is the worst motel I have ever stayed in!!There is so much more that I could say but I am tired of typing !!!  Only good thing is next door you have a Starbucks and a Denny’s and several others restaurants.. Its Not bus friendly as far as parking goes and there is allot of road construction on 183 making it hard to access this dump. I had to stay here because there were no other available rooms in the Arlington Texas  area.WHAT A NIGHTMARE!!and shame on the Managment and Owners of this Motel !!!More</t>
   </si>
   <si>
+    <t>Karen H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r137114891-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -741,6 +828,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>DawninDallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r134662389-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -777,6 +867,9 @@
     <t>I have been stayng at this hotel for several nights at a time a couple of times a year since 2006 and I like it.  The rooms are clean.  The beds and pillows are comfortable.  They have a hot breakfast with eggs, waffles, sausages, and all the cold stuff like cereal, muffins, yogurt, and toast.  The hotel staff is friendly and nice to me.  The rates are very good.  When there has been something that has been broken, they fix it or move me to another room.  I always stay on the far back side of the property 2nd floor and it is very quiet.  I enjoy hearing the birds sing and the view of the fields.  This hotel is not very busy so it is plenty quiet - no worries about people keeping you up at night.  I always feel safe here and walk around the hotel for exercise at night.  And there is a pool in season that I enjoy.  It is only 7 min. from DFW airport so I can finish my class and fly out.More</t>
   </si>
   <si>
+    <t>valeryg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r128352764-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -795,6 +888,9 @@
     <t>January 2012</t>
   </si>
   <si>
+    <t>GlobalGirlz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r117050116-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -810,6 +906,9 @@
     <t xml:space="preserve">Got put up here for one night by American Airlines when late flight made us miss our connection. The shuttle driver to/from the airport is a rude and obnoxious-- beware. Room was fine but only access from outdoors and it was over 100 degrees in Dallas so you sweat just walking to your room and at night we had to run the shower for 30 mins before we got hot water. I can't imagine that anyone would actually pay to stay here. </t>
   </si>
   <si>
+    <t>Jim D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r116628185-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -831,6 +930,9 @@
     <t>Like many others, I was one of the unsuspecting "suckers" sent here by American Airlines when my flight had mechanical problems.  I arrived around 9 pm and informed the Desk CLerk that I had a 6:26 am flight the next day.  She told me that the first shuttle departed at 5:00 and I would need to be there at 4:50.  I then saw her put my room number down on the shuttle manifest list for 5:00 am.  I got my key and began walking to my room.  There were 6 of us on the shuttle sent by American and I was the first to get my key.  All of us were sent to rooms at the very back of the hotel.  The exterior corridors are very dimly lit.  As I was walking, I noticed that the pool was full of leaves and plant debris, but there were no trees on the property.  Thankfully, I had no plans to swim.  As I turned the corner at the back of the hotel, I noticed three men in their early 20s drinking and smoking cigarettes outside their room.  I walked back and told the two female guests that I was concerned for their safety and that I would walk them to their rooms if they would like. Both were very thankful and took me up on the offer.  After ensuring that they were safely in their rooms, I went to my room and...Like many others, I was one of the unsuspecting "suckers" sent here by American Airlines when my flight had mechanical problems.  I arrived around 9 pm and informed the Desk CLerk that I had a 6:26 am flight the next day.  She told me that the first shuttle departed at 5:00 and I would need to be there at 4:50.  I then saw her put my room number down on the shuttle manifest list for 5:00 am.  I got my key and began walking to my room.  There were 6 of us on the shuttle sent by American and I was the first to get my key.  All of us were sent to rooms at the very back of the hotel.  The exterior corridors are very dimly lit.  As I was walking, I noticed that the pool was full of leaves and plant debris, but there were no trees on the property.  Thankfully, I had no plans to swim.  As I turned the corner at the back of the hotel, I noticed three men in their early 20s drinking and smoking cigarettes outside their room.  I walked back and told the two female guests that I was concerned for their safety and that I would walk them to their rooms if they would like. Both were very thankful and took me up on the offer.  After ensuring that they were safely in their rooms, I went to my room and was appalled.  The carpet was stained, the walls were moldy and cracked, the room smelled as if whatever foul smells were in there were being covered with way too much air frshener.  I set my alarm for 4:00 am and went to sleep.  When I woke up at 4:00 and turned on the light, cockroaches and crickets scattered across the floor.  I quickly showered and dressed thankful to be leaving,  I checked out and asked the Desk Clerk about where I should meet the shuttle.  He looked at my key card and told me that I was not scheduled for the 5:00 am shuttle. I told him that there must be a mistake as I watched the Desk Clerk put my room number down for the shuttle.  He told me that there was no mistake and that he could not explain why I was not on the list but that I would need to get a cab and pay myself for my trip back to DFW.  I have complained to American Airlines and can assure you that I will do everything that I can to keep from flying on American again.  In fact, when I fly to an city only served by American, I will fly to the next closest city served by another airline and drive the remainder of the route.If anyone ever has an issue with criminal activity at this hotel, I have contacted American and informed themthat this hotel is not safe.  I would be willing to testify on your behalf against them if they continue to send unsuspecting passengers here.WHATEVER YOU DO, DO NOT STAY AT THIS HOTEL!!!!!!More</t>
   </si>
   <si>
+    <t>Coloradomom55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r102851785-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -852,6 +954,9 @@
     <t>I'd like to invite American Airlines' CEO to stay a night in this hotel that his company put us up in last night.  With so many newer, clean accommodations close to DFW, why on earth does AA use this awful, outdated property?  I can only guess that they get the rooms for next to nothing, because that's what they are worth.  Like the previous reviewer, we stayed at the Quality Inn Euless courtesy of a voucher from AA.  After nearly an hour wait for the Quality Inn shuttle (which was as dirty and awful as the hotel) we were taken to a run-down, flea-bag of a motel whose best days were decades ago.  The shuttle driver barely acknowledged her passengers and any attempt at conversation was met with surly, one-word responses.  The motel parking lot was basically deserted; my guess is that the only patrons on most nights are those poor, unsuspecting souls sent there by American.  External walkways were dimly lit, there was pealing paint and rust on the outdoor stairs.  Our room had the distinctive smell of an attempt to cover up odors with the sickly sweet scent of a continuous air freshener.  Although the linens appeared clean, we wore socks in the room due to the questionable condition of the carpet.  The dead spider and rolly-polly bug in the bathroom were a nice touch.  The exhaust vent in the bathroom was blocked with dirt and dust.  the...I'd like to invite American Airlines' CEO to stay a night in this hotel that his company put us up in last night.  With so many newer, clean accommodations close to DFW, why on earth does AA use this awful, outdated property?  I can only guess that they get the rooms for next to nothing, because that's what they are worth.  Like the previous reviewer, we stayed at the Quality Inn Euless courtesy of a voucher from AA.  After nearly an hour wait for the Quality Inn shuttle (which was as dirty and awful as the hotel) we were taken to a run-down, flea-bag of a motel whose best days were decades ago.  The shuttle driver barely acknowledged her passengers and any attempt at conversation was met with surly, one-word responses.  The motel parking lot was basically deserted; my guess is that the only patrons on most nights are those poor, unsuspecting souls sent there by American.  External walkways were dimly lit, there was pealing paint and rust on the outdoor stairs.  Our room had the distinctive smell of an attempt to cover up odors with the sickly sweet scent of a continuous air freshener.  Although the linens appeared clean, we wore socks in the room due to the questionable condition of the carpet.  The dead spider and rolly-polly bug in the bathroom were a nice touch.  The exhaust vent in the bathroom was blocked with dirt and dust.  the inside of the air conditioner was covered with dust, mold and what appeared to be insect droppings  You could see daylight around the external door, hardly a secure feeling.  The free continental breakfast was not for the faint of heart.  Breakfast hours were advertised as 5:00 to 9:00 am.  We arrived at about 8:00 am.  No one appeared to be in attendance to clean up or replenish supplies.  Boiled eggs with cracked shells sat in lukewarm water just waiting for an unsuspecting victim.  Congealed country gravy and exactly 1/2 patty of sausage.  A fruit bowl with one apple.  A juice machine that looked as if it had never been wiped down.  The only edible item was the make-your-own waffle in the shape of the state of Texas.  We took a peek at the outdoor (cess)pool before we left -- cloudy, uninviting water full of leaves and twigs.  Again we had the surly van driver going back to the airport.  There were six of us waiting for the van back to the airport and her only words were, "You ready?"  Is this American Airlines' idea of acceptable accommodations for displaced passengers?  Because there was nothing of quality about this inn.More</t>
   </si>
   <si>
+    <t>realjewell</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r85780386-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -873,6 +978,9 @@
     <t>We stayed at this Quality Inn because of having missed a flight out of DFW.  We received a voucher for the accommodations from American Airlines.  The biggest plus was the friendliness of the front desk staff.  Also, the nearby Dennys has a terrific waitress--Prudie.  Other than that, is was not a pleasant experience.  Granted, we were very tired, having flown 11+ hours from Europe, having missed our connecting flight and having been told that there would be no seats for us until Tuesday (this was Sunday night), andhaving waited approximately 45 minutes for the hotel shuttle at DFW, etc.  Worst of all, when we finally made it to the head of the line to check in (at about 11:30 p.m.), we were told that there were no more non-smoking rooms.  The room we were given smelled worse than terrible.  The bathtub had been painted with some sort of white material that rendered it was streaky and strange.  The smell of stale cigarettes was the worst, however.  I cannot believe that people can actually sleep in such rooms, even smokers.  The room--and the motel itself--were very careworn and in need of extensive renovation.  The breakfast provided was welcome, but marginal.  Even had we been in a "happy place" emotionally and physically, this property was definitely substandard.  Props, however, to the front desk staff for making the best of a difficult situation.  There had been tornadoes in the area earlier in the...We stayed at this Quality Inn because of having missed a flight out of DFW.  We received a voucher for the accommodations from American Airlines.  The biggest plus was the friendliness of the front desk staff.  Also, the nearby Dennys has a terrific waitress--Prudie.  Other than that, is was not a pleasant experience.  Granted, we were very tired, having flown 11+ hours from Europe, having missed our connecting flight and having been told that there would be no seats for us until Tuesday (this was Sunday night), andhaving waited approximately 45 minutes for the hotel shuttle at DFW, etc.  Worst of all, when we finally made it to the head of the line to check in (at about 11:30 p.m.), we were told that there were no more non-smoking rooms.  The room we were given smelled worse than terrible.  The bathtub had been painted with some sort of white material that rendered it was streaky and strange.  The smell of stale cigarettes was the worst, however.  I cannot believe that people can actually sleep in such rooms, even smokers.  The room--and the motel itself--were very careworn and in need of extensive renovation.  The breakfast provided was welcome, but marginal.  Even had we been in a "happy place" emotionally and physically, this property was definitely substandard.  Props, however, to the front desk staff for making the best of a difficult situation.  There had been tornadoes in the area earlier in the day which had wreaked havoc with flight schedules.  We did eventually make it home the following day (Monday), but only by flying via Palm Springs to get to our real destination--Sacramento.More</t>
   </si>
   <si>
+    <t>ReneeW4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r84013752-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -886,6 +994,9 @@
   </si>
   <si>
     <t>There were obvious dried spills on the comforter - not stains - spills that would have come out if it were washed.  Small bugs, some dead, some alive.  Dust in areas that should have been dusted.  Pretty gross.</t>
+  </si>
+  <si>
+    <t>dharmesh8</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r60862707-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -1408,43 +1519,47 @@
       <c r="A2" t="n">
         <v>5200</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169368</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1460,56 +1575,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5200</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>37350</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1527,50 +1646,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5200</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169369</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1590,50 +1713,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5200</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169370</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1651,50 +1778,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5200</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169371</v>
+      </c>
+      <c r="C6" t="s">
+        <v>82</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="L6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1714,50 +1845,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5200</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169372</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -1775,50 +1910,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5200</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>42458</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1838,50 +1977,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5200</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>23651</v>
+      </c>
+      <c r="C9" t="s">
+        <v>106</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1895,50 +2038,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5200</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169373</v>
+      </c>
+      <c r="C10" t="s">
+        <v>112</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -1962,50 +2109,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5200</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>148634</v>
+      </c>
+      <c r="C11" t="s">
+        <v>120</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="J11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="O11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -2029,50 +2180,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5200</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169374</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P12" t="n">
         <v>3</v>
@@ -2096,50 +2251,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5200</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>13148</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="O13" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2153,50 +2312,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5200</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>169375</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
         <v>134</v>
       </c>
-      <c r="K14" t="s">
-        <v>135</v>
-      </c>
-      <c r="L14" t="s">
-        <v>136</v>
-      </c>
-      <c r="M14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N14" t="s">
-        <v>123</v>
-      </c>
       <c r="O14" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2218,50 +2381,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5200</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>169376</v>
+      </c>
+      <c r="C15" t="s">
+        <v>151</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2285,50 +2452,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5200</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>169377</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2352,50 +2523,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5200</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>169378</v>
+      </c>
+      <c r="C17" t="s">
+        <v>165</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J17" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="K17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2419,50 +2594,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5200</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169379</v>
+      </c>
+      <c r="C18" t="s">
+        <v>172</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -2486,50 +2665,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5200</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169380</v>
+      </c>
+      <c r="C19" t="s">
+        <v>179</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2553,50 +2736,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5200</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169375</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J20" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="K20" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="L20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2620,50 +2807,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5200</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>169381</v>
+      </c>
+      <c r="C21" t="s">
+        <v>191</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O21" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2687,50 +2878,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5200</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>169382</v>
+      </c>
+      <c r="C22" t="s">
+        <v>197</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2754,41 +2949,45 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5200</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>31028</v>
+      </c>
+      <c r="C23" t="s">
+        <v>204</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
@@ -2817,41 +3016,45 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5200</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>169383</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -2880,50 +3083,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5200</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>169384</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2947,41 +3154,45 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5200</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>169385</v>
+      </c>
+      <c r="C26" t="s">
+        <v>225</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
@@ -3008,50 +3219,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5200</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -3075,50 +3290,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5200</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3142,50 +3361,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5200</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>169386</v>
+      </c>
+      <c r="C29" t="s">
+        <v>246</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="O29" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3209,50 +3432,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5200</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>47331</v>
+      </c>
+      <c r="C30" t="s">
+        <v>253</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -3276,50 +3503,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5200</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>10578</v>
+      </c>
+      <c r="C31" t="s">
+        <v>261</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="J31" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>2</v>
@@ -3343,41 +3574,45 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5200</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>169387</v>
+      </c>
+      <c r="C32" t="s">
+        <v>268</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="K32" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="L32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
@@ -3404,50 +3639,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5200</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>10578</v>
+      </c>
+      <c r="C33" t="s">
+        <v>261</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="J33" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="K33" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="L33" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3471,50 +3710,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5200</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>169388</v>
+      </c>
+      <c r="C34" t="s">
+        <v>281</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="J34" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="K34" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="O34" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3538,41 +3781,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5200</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>93685</v>
+      </c>
+      <c r="C35" t="s">
+        <v>288</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="J35" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="K35" t="s">
-        <v>260</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
@@ -3601,50 +3848,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5200</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>5511</v>
+      </c>
+      <c r="C36" t="s">
+        <v>294</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="J36" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="K36" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -3664,50 +3915,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5200</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>169389</v>
+      </c>
+      <c r="C37" t="s">
+        <v>302</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="J37" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="K37" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="L37" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="O37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P37" t="n">
         <v>1</v>
@@ -3731,50 +3986,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5200</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>169390</v>
+      </c>
+      <c r="C38" t="s">
+        <v>310</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="J38" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="K38" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="L38" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="M38" t="n">
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -3796,50 +4055,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5200</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>169391</v>
+      </c>
+      <c r="C39" t="s">
+        <v>318</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="J39" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="K39" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="L39" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="O39" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -3859,50 +4122,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5200</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>169392</v>
+      </c>
+      <c r="C40" t="s">
+        <v>324</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="J40" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="K40" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="L40" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -3926,7 +4193,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_570.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_570.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="451">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>BrinaLeee</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r490668348-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>55815</t>
+  </si>
+  <si>
+    <t>98736</t>
+  </si>
+  <si>
+    <t>490668348</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Good Clean Room, Terrible Site</t>
+  </si>
+  <si>
+    <t>This whole area is under massive road construction, and the entry into the site requires an off-road vehicle almost - a gravel drive that is iffy at best. Navigating in this area is a nightmare. The room was clean, and the staff friendly. Mr. Motorcycle next door just HAD to fire his Harley up at 4AM.....thanks a lot. There were some sketchy-looking folks in the area as well, including some under dressed "ladies" who seemed to be overly friendly, if you know what I mean. Don't take your kids here.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r435215461-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>435215461</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t>No way!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My boyfriend and I stayed 1 night at this hotel and I will never return. This place was nasty. The sheets were not clean and had stains all over them. The tv was very old and dirty and the bathroom was total disgust!! The tub was dirty, peeling and old. Also bugs were all over the walls in the bathroom. </t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r423296677-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
-    <t>55815</t>
-  </si>
-  <si>
-    <t>98736</t>
-  </si>
-  <si>
     <t>423296677</t>
   </si>
   <si>
@@ -192,9 +231,6 @@
     <t>Yes i made the mistake by booking here and not somewhere expensive considering the fact that i was only sleeping there for about 5 hours. My plan was to get there and shower but that went out the door when i looked at the Shower.. it was disgusting. My friend stayed in the room next to me so i thought it was just my room but hers was like that too :( Everything in my room was out dated...specially the AC. Not gonna lie, customer service there is pretty good but i will NOT be staying there again. This place needs Major remodeling.More</t>
   </si>
   <si>
-    <t>cliffsiler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r403025437-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -219,9 +255,6 @@
     <t>A very clean Motel 6 just down the road from my house. I watched this place being renovated twice in 14 years. This is a very clean place BUT it is a bed and TV and a bathroom/Shower. That's it! No coffeemaker in the room no microwave, no fridge and the TV isn't worth the trouble. I only say that because the price was $50! AT A Motel 6!!! I remember a time when people took care of people and now it's a time of how much can I squeeze out of people. The front desk clerk was the most memorable part of my stay. I was remodeling my bathroom and this place was just down the street but I moved on after 1 night here. I won't DO IT HERE AGAIN! Just because I have and can make money doesn't mean I am a carefree spender. I give value at my business and I expect value from others. Especially in my community.More</t>
   </si>
   <si>
-    <t>spence631</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r382196242-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -240,10 +273,45 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>JJesse1961</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r315708697-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>315708697</t>
+  </si>
+  <si>
+    <t>10/02/2015</t>
+  </si>
+  <si>
+    <t>Most disgusting hotel room of my life</t>
+  </si>
+  <si>
+    <t>This room was the most disgusting hotel room I have ever stayed in, which is surprising since they charge more than other motel 6 in the area. The room smells like urine. There is mold and a horrible smell in the refrigerator. The tub is nasty and the cold water in the tub doesn't work at all. The TV was discolor rd and the remote didn't match the TV. There were ants on the floor and cobwebs in the corner... Went to tell the front desk all of this tonight and they were rude about it asking why I didn't tell them earlier. Could it be because I have been working my butt off all day moving out of a third floor apartment? If you value your sanity, do not stay here. Bug restful the pictures aren't scratch and sniffMoreShow less</t>
+  </si>
+  <si>
+    <t>This room was the most disgusting hotel room I have ever stayed in, which is surprising since they charge more than other motel 6 in the area. The room smells like urine. There is mold and a horrible smell in the refrigerator. The tub is nasty and the cold water in the tub doesn't work at all. The TV was discolor rd and the remote didn't match the TV. There were ants on the floor and cobwebs in the corner... Went to tell the front desk all of this tonight and they were rude about it asking why I didn't tell them earlier. Could it be because I have been working my butt off all day moving out of a third floor apartment? If you value your sanity, do not stay here. Bug restful the pictures aren't scratch and sniffMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r296309241-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>296309241</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Adequate at Best</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel 6 for one night, August 4. I had not made a reservation but they had plenty of vacancies. I was given a king bedroom on the first floor. The bed was comfortable and the air conditioner works great...even has "constant fan" option which I like,...especially when trying to get to sleep while maintenance is still outside working on the parking lot at 830-9 pm! After they stopped, it was ok...The bathroom is tiny and there are stains/spots on the edge of the bathtub...looks like someone was sitting on the toilet and laying cigarettes on the tub. (This particular building of the motel has been non-smoking for years, so this shows how often renovations are done.) There is a small refridgerator and a microwave in the room. In the closet there is the hanger where an iron and ironing board should be, but these items are not in the room. The bathtub faucet had a constant drip which I reported when I checked out and the guy at the desk said "Is it dripping water?" hmmm...In typical Motel 6 fashion, there is no breakfast offered....just coffee in the lobby.  The motel is next door to a Starbucks, which is next to a Denny's Restaurant...no need to take your car out to look for something to eat if you don't want to.  
+This is an older facility, having been a Quality Inn, and before that a LaQuinta,...I stayed at this Motel 6 for one night, August 4. I had not made a reservation but they had plenty of vacancies. I was given a king bedroom on the first floor. The bed was comfortable and the air conditioner works great...even has "constant fan" option which I like,...especially when trying to get to sleep while maintenance is still outside working on the parking lot at 830-9 pm! After they stopped, it was ok...The bathroom is tiny and there are stains/spots on the edge of the bathtub...looks like someone was sitting on the toilet and laying cigarettes on the tub. (This particular building of the motel has been non-smoking for years, so this shows how often renovations are done.) There is a small refridgerator and a microwave in the room. In the closet there is the hanger where an iron and ironing board should be, but these items are not in the room. The bathtub faucet had a constant drip which I reported when I checked out and the guy at the desk said "Is it dripping water?" hmmm...In typical Motel 6 fashion, there is no breakfast offered....just coffee in the lobby.  The motel is next door to a Starbucks, which is next to a Denny's Restaurant...no need to take your car out to look for something to eat if you don't want to.  This is an older facility, having been a Quality Inn, and before that a LaQuinta, and before that something else. A lot of work needs to be done around the property...including getting the swimming pool usable, finishing redoing the parking lot (and not in the late evening hours), newer TVs with decent cable stations. The lady who checked me in was very friendly and professional, as was the lady on the night shift who I visited with when I went for coffee. The guy who came in for day shift and was there when I checked out seemed clueless when I told him about the drippy faucet...I hope maintenance got the information.  Would I stay here again? Probably not, even though it worked for the short time I was there this time.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel 6 for one night, August 4. I had not made a reservation but they had plenty of vacancies. I was given a king bedroom on the first floor. The bed was comfortable and the air conditioner works great...even has "constant fan" option which I like,...especially when trying to get to sleep while maintenance is still outside working on the parking lot at 830-9 pm! After they stopped, it was ok...The bathroom is tiny and there are stains/spots on the edge of the bathtub...looks like someone was sitting on the toilet and laying cigarettes on the tub. (This particular building of the motel has been non-smoking for years, so this shows how often renovations are done.) There is a small refridgerator and a microwave in the room. In the closet there is the hanger where an iron and ironing board should be, but these items are not in the room. The bathtub faucet had a constant drip which I reported when I checked out and the guy at the desk said "Is it dripping water?" hmmm...In typical Motel 6 fashion, there is no breakfast offered....just coffee in the lobby.  The motel is next door to a Starbucks, which is next to a Denny's Restaurant...no need to take your car out to look for something to eat if you don't want to.  
+This is an older facility, having been a Quality Inn, and before that a LaQuinta,...I stayed at this Motel 6 for one night, August 4. I had not made a reservation but they had plenty of vacancies. I was given a king bedroom on the first floor. The bed was comfortable and the air conditioner works great...even has "constant fan" option which I like,...especially when trying to get to sleep while maintenance is still outside working on the parking lot at 830-9 pm! After they stopped, it was ok...The bathroom is tiny and there are stains/spots on the edge of the bathtub...looks like someone was sitting on the toilet and laying cigarettes on the tub. (This particular building of the motel has been non-smoking for years, so this shows how often renovations are done.) There is a small refridgerator and a microwave in the room. In the closet there is the hanger where an iron and ironing board should be, but these items are not in the room. The bathtub faucet had a constant drip which I reported when I checked out and the guy at the desk said "Is it dripping water?" hmmm...In typical Motel 6 fashion, there is no breakfast offered....just coffee in the lobby.  The motel is next door to a Starbucks, which is next to a Denny's Restaurant...no need to take your car out to look for something to eat if you don't want to.  This is an older facility, having been a Quality Inn, and before that a LaQuinta, and before that something else. A lot of work needs to be done around the property...including getting the swimming pool usable, finishing redoing the parking lot (and not in the late evening hours), newer TVs with decent cable stations. The lady who checked me in was very friendly and professional, as was the lady on the night shift who I visited with when I went for coffee. The guy who came in for day shift and was there when I checked out seemed clueless when I told him about the drippy faucet...I hope maintenance got the information.  Would I stay here again? Probably not, even though it worked for the short time I was there this time.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r292574454-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -264,9 +332,6 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t>sammy d</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r236469125-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -285,9 +350,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t>Karla F</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r230743526-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -312,7 +374,40 @@
     <t>The lobby was nice enough, and the workers friendly.  It was a little disconcerting that the lights were out at night on the exterior of the building though.  The room was quiet, air conditioner worked well, but the carpet had seen better days, and we saw some bugs in the bathroom area.  I probably wouldn't stay again, mainly because of the bugs I saw, but I'm kind of bug averse.  We had an early morning flight, so all we did was sleep.  The beds were clean and comfortable though, so if you are looking for an inexpensive place to stay close to the airport and aren't real picky, this might be your hotel.More</t>
   </si>
   <si>
-    <t>KathyTX</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r223633904-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>223633904</t>
+  </si>
+  <si>
+    <t>08/22/2014</t>
+  </si>
+  <si>
+    <t>Very Dated</t>
+  </si>
+  <si>
+    <t>This is a easy on and off from 183 but a very dated unit.  The place just needs a full remodel and updating.  Rooms felt small.  Bathroom was clean but tub wouldnt drain in 107.  The price was good at $49 a night but glad my family wasnt with me...my wife would have freaked out.  Just know what $49 a night gets ya.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r219765587-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>219765587</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>Looks Nice from the Highway</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting Texas for our family reunion. Over all the rooms was clean, Front Desk Staff was nice and did all they can do to make our stay more comfortable. My room was located in the back of the Inn facing Home Depot. The room offers your basics, bathroom tub paint was pealing off so it was two different colors. Pool was disgusting needed to be cleaned, They cleaned it the day we arrived only thing is it looks like they put too much chlorine that you couldnt see the steps inside the pool. This Inn can use alot of TLC and it will make it a nice place to stay especially it was close to everything. The front desk staff was nice but you can only do so much to make someone stay more comfortable. The continental breakfast, well it was free so didnt expect a great one but it had the usual eggs, cold cereals, coffee, juice, sausages, waffles etc. Lupe and the two other girls are awesome thank you for everything and if it wasnt for them then I probably give no stars...MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting Texas for our family reunion. Over all the rooms was clean, Front Desk Staff was nice and did all they can do to make our stay more comfortable. My room was located in the back of the Inn facing Home Depot. The room offers your basics, bathroom tub paint was pealing off so it was two different colors. Pool was disgusting needed to be cleaned, They cleaned it the day we arrived only thing is it looks like they put too much chlorine that you couldnt see the steps inside the pool. This Inn can use alot of TLC and it will make it a nice place to stay especially it was close to everything. The front desk staff was nice but you can only do so much to make someone stay more comfortable. The continental breakfast, well it was free so didnt expect a great one but it had the usual eggs, cold cereals, coffee, juice, sausages, waffles etc. Lupe and the two other girls are awesome thank you for everything and if it wasnt for them then I probably give no stars...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r217794237-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -333,12 +428,6 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Ashley B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r216577247-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -354,9 +443,6 @@
     <t>I stayed here one night for a job interview. The water was either hot or hotter in the shower. The majority of the tv channels barely worked or didn't work. The beds were not very comfortable.  The staff in the office were nice though. The offered to move us to a new room, but it was late in the evening. The toilet ran for several minutes after it was flushed. When you took a shower, rhe water got all over tye floor. The room did not seem to have been cleaned very well either. Don't think I would stay here again.</t>
   </si>
   <si>
-    <t>Kevin V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r213099546-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -378,7 +464,40 @@
     <t>I stayed here on an overnight layover in June 2014.  The guaranteed airport shuttle never came in the evening.  After waiting for an hour, I ended up taking a cab to the hotel, and in the morning it was the same story: The complementary shuttle was not running.  My fares have not been reimbursed.  The night I was there was a nightmare for the guy at the desk.  People had been booked into rooms that had not been cleaned.  As I was checking in, someone came and complained that someone was already sleeping in their hotel room when they arrived.  The manager is absent, and can not be reached.This hotel is unorganized, and poorly managed.  Take your money elsewhere.More</t>
   </si>
   <si>
-    <t>fcrane35</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r209488727-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>209488727</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Got what i paid for</t>
+  </si>
+  <si>
+    <t>My friend and I stayed at this hotel in June '14 for a concert in Arlington. Checking in was easy and the staff were very plesant to work with. However, it was pretty much downhill from there. The hotel grounds are not upkept well and dirty. When we reached our room, the a/c was not on and the room was hot and smelled musky (had to air it out). NO fridge or microwave like the website said. Bathroom was gross, no ventilation. The housekeeping was poor, my room was never cleaned once. Out of date TV (tube tv). The coffee maker didnt even have a pot! Not that anyoe makes coffee with those but still weird. Surprisingly the beds werent too bad but not anything special. The breakfast is held in what seemed to be a regular room modified to serve breakfast. There are a lot of what seemed to be "permanent" guests (as another review noted). I paid only 60 approx/night so I guess I got what I paid for. One thing I did like was the service of the staff. They provided a shuttle to the concert since so many of us were going which was very handy so kudos to the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>My friend and I stayed at this hotel in June '14 for a concert in Arlington. Checking in was easy and the staff were very plesant to work with. However, it was pretty much downhill from there. The hotel grounds are not upkept well and dirty. When we reached our room, the a/c was not on and the room was hot and smelled musky (had to air it out). NO fridge or microwave like the website said. Bathroom was gross, no ventilation. The housekeeping was poor, my room was never cleaned once. Out of date TV (tube tv). The coffee maker didnt even have a pot! Not that anyoe makes coffee with those but still weird. Surprisingly the beds werent too bad but not anything special. The breakfast is held in what seemed to be a regular room modified to serve breakfast. There are a lot of what seemed to be "permanent" guests (as another review noted). I paid only 60 approx/night so I guess I got what I paid for. One thing I did like was the service of the staff. They provided a shuttle to the concert since so many of us were going which was very handy so kudos to the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r207662138-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>207662138</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Stay Away</t>
+  </si>
+  <si>
+    <t>This was an old La Quinta. When they first changed to a Quality Inn, it was a decent place. Since then I think non-Americans have purchased it. It has gone down hill fast. It is dirty, the grounds are not well kept, the rooms smell musty and they are not kept updated. It seems like their clientele has become much seeder. It looks like they have a lot of weekly type customers now (if you know what I mean). I would suggest passing this one by.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r201866792-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -402,9 +521,6 @@
     <t>Delta dumped us here and really needs to do a site inspection. The room smelled, the loud floor air conditioner kept me up all nite thumping on and off and the continuous fan setting didn't work. Carpets stained, bedspreads ancient, roaches in the bathroom. YUK!!!!! I had no luggage courtesy of Delta and was afraid to sleep in the bed with no clothes. Cars pull up right to the room and make all kinds of noise. Room is horrible but staff very pleasant and helpful. Agree with another reviewer about the shuttle. We waited an hour for airport pickup and was told each time we called "he just left". Really? the hotel is 3 miles away.More</t>
   </si>
   <si>
-    <t>Betsy99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r198433728-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -426,9 +542,6 @@
     <t>American Airlines flight delays must keep this place in business.  Our flight from San Jose, CA was delayed by 8 hours so we ended up here for a very short (6 hours total) night.  American staff told us the hotel was 20 minutes by shuttle and gave us a number to call for pickup, instead of doing it for us!  We waited about 40 minutes for the shuttle - a group of very tired travelers, all of us freezing in the 20 degree night - and we continued to freeze on the shuttle which had no heat during our 30 minute ride. The return shuttle ride at 5 A.m. was only 20 minutes as advertised!When we arrived at the Quality Inn, the cheerful staff was organized, told us all everything we needed to know as a group and checked us in a just a few minutes.  it was the most thoughtful service we received all day. The front desk staff was helpful also in deciding when we needed to return to DFW.The room was clean and the beds were reasonably comfortable, but due to short stay, I can't comment on much else.More</t>
   </si>
   <si>
-    <t>Amanda D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r197865102-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -450,7 +563,37 @@
     <t>First off I stayed from February 23 to March 18. My husband and I were making arrangements to move out of state so we stayed here until everything was ready in the other state. From the night we checked in until we left the service was POOR. They were over charging my credit card and the manager is a JOKE. THE HOTEL OWED ME $355 and they did not want to pay me back. I had to go back and forth with there corporate bank and my bank and finally received my money back. So I started paying in cash and they were suppose to remove my card from there system and they did not they were taking my cash and still charging my card $514 they owed me a second time. The housekeeping does not clean properly they also take personal items and monies that do not belong to them.  I told the manager on duty and she took the staff word over mine the guess. They give discounts and take them back and give you a made up excuse as to why it happened. This is NOT a home away from home. Tasha , another lady  I forget her name and a young man at the front desk are the only good thing about that HOTEL. In need of NEW MANAGEMENT ASAP.I WILL NOT STAY HERE AGAIN. DO NOT WASTE YOUR HARD EARNED MONEY HERE. RIP OFF. WOULD...First off I stayed from February 23 to March 18. My husband and I were making arrangements to move out of state so we stayed here until everything was ready in the other state. From the night we checked in until we left the service was POOR. They were over charging my credit card and the manager is a JOKE. THE HOTEL OWED ME $355 and they did not want to pay me back. I had to go back and forth with there corporate bank and my bank and finally received my money back. So I started paying in cash and they were suppose to remove my card from there system and they did not they were taking my cash and still charging my card $514 they owed me a second time. The housekeeping does not clean properly they also take personal items and monies that do not belong to them.  I told the manager on duty and she took the staff word over mine the guess. They give discounts and take them back and give you a made up excuse as to why it happened. This is NOT a home away from home. Tasha , another lady  I forget her name and a young man at the front desk are the only good thing about that HOTEL. In need of NEW MANAGEMENT ASAP.I WILL NOT STAY HERE AGAIN. DO NOT WASTE YOUR HARD EARNED MONEY HERE. RIP OFF. WOULD NOT RECOMMEND THIS HOTEL TO ANY ONE.When I checked out the manager asked about my credit card. No sorry for all the inconvenient things we have done. No please come again next time we will be on our A game for your next visit. She sucks. More</t>
   </si>
   <si>
-    <t>Eggewoman</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r196088369-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>196088369</t>
+  </si>
+  <si>
+    <t>03/03/2014</t>
+  </si>
+  <si>
+    <t>This is a dump</t>
+  </si>
+  <si>
+    <t>This place should be shut down. Looked like room wasn't clean. Front desk clerk was nice. She keep her cool and so did I. I will never stay at a quality inn in my life no more. Only here for some hours and I was ready to sleep in my rental car in the cold.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r195794130-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>195794130</t>
+  </si>
+  <si>
+    <t>03/01/2014</t>
+  </si>
+  <si>
+    <t>Don't let the airline screw you too!!!</t>
+  </si>
+  <si>
+    <t>We missed our connection because of a mechanical error... We were put up in this terrible hotel by American Airlines. Quoted 20 minutes on shuttle pick up when in reality it was one hour and 10 minutes. Multiple calls to the hotel, each time we were told "he just left". The driver "Saul" had wasn't apologetic, didn't help with bags and had a huge attitude. Room wasn't clean, I had to tuck in my own sheets bc bed wasn't fully made. Remote was taped together. In the morning when I was leaving "Saul" was at the front desk and I asked if they could spare and envelope or knew if there was anywhere near to get one... His entire answer (followed by extremely awkward moment) was "No". That was actually it. No explanation, no service, no return customers. DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>We missed our connection because of a mechanical error... We were put up in this terrible hotel by American Airlines. Quoted 20 minutes on shuttle pick up when in reality it was one hour and 10 minutes. Multiple calls to the hotel, each time we were told "he just left". The driver "Saul" had wasn't apologetic, didn't help with bags and had a huge attitude. Room wasn't clean, I had to tuck in my own sheets bc bed wasn't fully made. Remote was taped together. In the morning when I was leaving "Saul" was at the front desk and I asked if they could spare and envelope or knew if there was anywhere near to get one... His entire answer (followed by extremely awkward moment) was "No". That was actually it. No explanation, no service, no return customers. DO NOT STAY HERE.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r194970534-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -471,9 +614,6 @@
     <t>The only reason we stayed here was because our American Airline flight home had mechanical problems and this is where they put us.  American Airlines must keep this place in business, since everyone we saw there had an airline voucher.  The shuttle driver was friendly.  The desk attendant was very nice and helpful, but she had only been there a week.  Our first room smelled like cat pee.  Our second room smelled funny, but better than the first.  I was sneezing like crazy by the time we left.  The walls are very thin and we could hear everything in the other rooms.  We didn't even undress.  The do have free breakfast, but we didn't even look at it.  We went back to the airport as soon as we woke up and ate there, but there were restaurants within walking distance.More</t>
   </si>
   <si>
-    <t>black h</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r191474434-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -492,9 +632,6 @@
     <t>January 2014</t>
   </si>
   <si>
-    <t>Anum K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r187804382-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -513,7 +650,37 @@
     <t>December 2013</t>
   </si>
   <si>
-    <t>sam k</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r186022277-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>186022277</t>
+  </si>
+  <si>
+    <t>11/26/2013</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>This is our second stay at this hotel.  Robin &amp; staff are very friendly and helpful. Reasonable prices, rooms were clean, beds were very comfortable, breakfast was good. Could use some better T.V's.we will be staying again on our next visit.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r185741260-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>185741260</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Perfect timing</t>
+  </si>
+  <si>
+    <t>Last minute cancellation of flight and the 50th anniversary of JFK's murder left me in a  challenging position to find a hotel room at a late hour.  Standing at the courtesy shuttle area with no hotel identidied, the driver reached out and knew they had a room.  The emloyees were very accommodating.  The room was clean and cozy.  I am not used to outside room entrances but it was okay.  Got a good night sleep and the complimentary breakfast was also okay.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r184823527-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -531,12 +698,6 @@
     <t>Good hotel to stay ideal location near by airport ,mall,and walking distance to Denny's restaurant and other restaurants ,easy in and out from highway  breakfast was excellent ,comfortable rooms good pillows and mattress is comfortable i sleep good the home depot is close by i always  buy staff from there ,our group will come back and stay in this hotel again Shahrukh khan</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
-    <t>rmartine_10</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r183682769-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -555,9 +716,6 @@
     <t>Place is old(er) but like I said, I've stayed in worse.  Our room was 156 and here is what was wrong with it:  Smelled musty, small black ants on tables and bathroom countertop.  Went through lobby to ask a question and lobby had a sewage smell.  Don't know why just got outta there quick.  Here is the good:  Right next door to Starbucks, Denny's and Taco Cabana.  My wife and I walked over to TC and had food and drinks before turning in for the night.  Bed was comfortable, sheets were clean and had plenty of fluffy pillows (5).  In the morning...coffee at Starbucks.  Skipped the free breakfast so can't comment.  Now in all fairness I'd like to add that we didn't complain and had we, who knows, they may have put us in another room?  Either way, believe it or not...I would stay there again but a discount for next visit would have been nice. ;-)More</t>
   </si>
   <si>
-    <t>KJW59</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r179651099-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -576,6 +734,42 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r176150870-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>176150870</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>BED BUGS.....WATCH OUT!!!</t>
+  </si>
+  <si>
+    <t>If you are going to stay here........don't get room 150!!!  It is full of bed bugs.  I actually required Emergency Treatment due to the horrible allergic reaction I had after my stay.  The manager, Karen, would not even come to the room when I called the front office and asked them to send a member of management there immediately so I could show them all the beautiful little bugs crawling all over my sheets, mattress and box springs.  When I lifted up the Mattress &amp; Box Springs.....here is what I found!!!   Broken ash tray full of some other guest's butts, empty soda bottles, someone's shoe, used condoms, used tissues, and tons of bed bugs running across the carpet to get away from the light!!!  Took tons of pictures because management was too busy to tend to the problem.Sound like somewhere you would like to stay with your family and friends!!!  I don't think so!!!The only good thing about this location at the front desk girls........Robin &amp; Diana.....they are both awesome!!!  Management and housekeeping all need to GO!!!BEWARE OF THIS LOCATION..........MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>If you are going to stay here........don't get room 150!!!  It is full of bed bugs.  I actually required Emergency Treatment due to the horrible allergic reaction I had after my stay.  The manager, Karen, would not even come to the room when I called the front office and asked them to send a member of management there immediately so I could show them all the beautiful little bugs crawling all over my sheets, mattress and box springs.  When I lifted up the Mattress &amp; Box Springs.....here is what I found!!!   Broken ash tray full of some other guest's butts, empty soda bottles, someone's shoe, used condoms, used tissues, and tons of bed bugs running across the carpet to get away from the light!!!  Took tons of pictures because management was too busy to tend to the problem.Sound like somewhere you would like to stay with your family and friends!!!  I don't think so!!!The only good thing about this location at the front desk girls........Robin &amp; Diana.....they are both awesome!!!  Management and housekeeping all need to GO!!!BEWARE OF THIS LOCATION..........More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r175007707-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>175007707</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>Horrible! Stay away!</t>
+  </si>
+  <si>
+    <t>I walked in and noticed that the beds were so small a 10 year old could take up the entire bed. There was refrigerator or microwave. The tv was old and had discoloration. The bathroom shower head had a lot of calcium build up. The toilet was nasty. The ac didn't even cool the room. None of the lamps worked even though they were still plugged in. The room had a putrid odor. The only good thing about the hotel room were the drapes. I will never come back here again! I cant believe that choice hotels would even let this dump be part of their franchise!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r174326675-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -591,9 +785,6 @@
     <t>We were in the area for a baseball tournament for a 5-night stay and had a large group. The staff was friendly and accommodating and the group rate was ideal. Beautiful, contemporary,  hotel with clean rooms and comfortable beds.</t>
   </si>
   <si>
-    <t>jazz d</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r173022699-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -609,9 +800,6 @@
     <t>This is a well kept property even though it's a older property , nothing pretentious about it. You get what you pay for and then some.Our room was very clean and everything worked properly. The beds were some of the best and most comfortable that I've encountered in any hotel in recent memory. Nice staff, very friendly. We never had any issues at all.</t>
   </si>
   <si>
-    <t>javimom</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r167118701-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -627,10 +815,43 @@
     <t>This hotel was clean. Bed was comfortable. Safe location. Freeway construction in progress nearby, but not really a problem. Didn't hear any noise from our room in the back. Continental breakfast offered lots of variety   Diana at front desk was very pleasant, friendly.  Diana went  out of her way to find a phone charger for me to use. June 7-9, 2013</t>
   </si>
   <si>
-    <t>June 2013</t>
-  </si>
-  <si>
-    <t>Danielle T</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r158323483-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>158323483</t>
+  </si>
+  <si>
+    <t>04/20/2013</t>
+  </si>
+  <si>
+    <t>General Manager is a Joke!</t>
+  </si>
+  <si>
+    <t>I was a guest at this hotel on April 18, 2013 on business.  Upon checking in, everything was fine.  The front desk attendant was very helpful and professional.  My room was okay, not the best I've ever had, but it served it's purpose.  Around 9 o'clock at night is when the shenanigans began.  Everything was quiet and peaceful until a few people started making noise outside my door. At first, I blew it off, but a person can only take so much!  At 10:30 I walked outside to see what was going on and there were people tail-gating, drinking beer,partying, and being loud.   Like I said, I was there on business and had work and be responsible the next day so I went to the front desk to complain.  All-in-all, it turned out the the General Manager, Karen, was one of the individuals who was outside partying and drinking beer with guests.  To top it off, the Hotel van with the Hotel Logo was parked right out there by the spot where all this took place.  I have never in my life been to a hotel where the General Manager is so extremely unprofessional to "hang out" with the guests and not care enough to take any action when her help and attention were needed. I expect to be respected as a guest as well as a Choice Privilege Member and will take further action as needed regarding this issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>I was a guest at this hotel on April 18, 2013 on business.  Upon checking in, everything was fine.  The front desk attendant was very helpful and professional.  My room was okay, not the best I've ever had, but it served it's purpose.  Around 9 o'clock at night is when the shenanigans began.  Everything was quiet and peaceful until a few people started making noise outside my door. At first, I blew it off, but a person can only take so much!  At 10:30 I walked outside to see what was going on and there were people tail-gating, drinking beer,partying, and being loud.   Like I said, I was there on business and had work and be responsible the next day so I went to the front desk to complain.  All-in-all, it turned out the the General Manager, Karen, was one of the individuals who was outside partying and drinking beer with guests.  To top it off, the Hotel van with the Hotel Logo was parked right out there by the spot where all this took place.  I have never in my life been to a hotel where the General Manager is so extremely unprofessional to "hang out" with the guests and not care enough to take any action when her help and attention were needed. I expect to be respected as a guest as well as a Choice Privilege Member and will take further action as needed regarding this issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r152132065-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>152132065</t>
+  </si>
+  <si>
+    <t>02/14/2013</t>
+  </si>
+  <si>
+    <t>Pathetic from every angle</t>
+  </si>
+  <si>
+    <t>This hotel is horrible.  Walk in and it smells.  The service is even worse.  I've had an outstanding complaint with management for 2 months.  The GM is worse than the hotel itself.  There is a reason that the quality Inn was rated one of the 10 worst hotels in America by Trip Advisor.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r151204546-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -651,9 +872,6 @@
     <t>From the minute we walked in I was grossed out. 1st off I walk in the bathroom and notice the maids didn't bother to clean up the people before us. Their soap was still in the bathtub and the bathtub had a nasty black dinge on the floor of the tub. I mean how much does clorox cost...NOT MUCH. Then I go to get ice. Well as for the ice machine outside, you have to put your room key in to get it to work(must be a sketchy area if they are worried about people stealing ice), but the stupid thing didn't even work anyways. Luckily the ice machine in the lobby worked. I get back to my room and wanted to call the front desk to schedule a wake up call. Well my phone didn't work and didn't even have wires to connect it to an outlet. The tv was super old and had some discoloration but at least it worked. The front desk attendant was so worried about talking to her friend that was there, that she never turned on the movie channel(many hotels these days play movies from the front desk) and you can tell when they have simply forgot about it because a screen saver plays on that channel. I was so tired I just crashed but when I woke up the next morning as I'm getting ready I notice blood stains on one of my...From the minute we walked in I was grossed out. 1st off I walk in the bathroom and notice the maids didn't bother to clean up the people before us. Their soap was still in the bathtub and the bathtub had a nasty black dinge on the floor of the tub. I mean how much does clorox cost...NOT MUCH. Then I go to get ice. Well as for the ice machine outside, you have to put your room key in to get it to work(must be a sketchy area if they are worried about people stealing ice), but the stupid thing didn't even work anyways. Luckily the ice machine in the lobby worked. I get back to my room and wanted to call the front desk to schedule a wake up call. Well my phone didn't work and didn't even have wires to connect it to an outlet. The tv was super old and had some discoloration but at least it worked. The front desk attendant was so worried about talking to her friend that was there, that she never turned on the movie channel(many hotels these days play movies from the front desk) and you can tell when they have simply forgot about it because a screen saver plays on that channel. I was so tired I just crashed but when I woke up the next morning as I'm getting ready I notice blood stains on one of my pillows. WTF? I was mortified I and took the pillow case off threw it on the floor in hopes that they would realize I needed it changed. I would have changed hotels if it was up to me but I'm on business and my company already prepaid for my stay. Well I get back from working all day to find that the maid hadn't cared to take out the trash, when both small trash cans in my room were full. And whoever "cleaned" my room had decided to take my full unopened soda bottle I had bought the night before. This place was horrible and I will never return ( and I visit fort worth many times a year on business). My company will definitely hear my complaints and will never put myself or any other members of our company up in this hotel ever again.More</t>
   </si>
   <si>
-    <t>franps</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r149845214-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -669,9 +887,6 @@
     <t>The rooms were dirty , smell like p... And the service was terribe we stay 3 nigth I won't do it again. We couldn't take a shower because no hoy water at all for 2 days. I ask for a discount for this matter and they said it was not there problem. I will never stay here in my life even if it was the only hotel I rather stay in my car.</t>
   </si>
   <si>
-    <t>nhugg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r148396476-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -687,13 +902,49 @@
     <t>American Airlines sent us to this hotel when, due to their fault, our flight connection could not be made.  This place is old, but lobby looked like it might be okay for an overnight.  First room they sent us too had not been cleaned after the prior guest.  Okay, honest mistake.  Second room smelled, white towels were brown/gray/dingy, carpet was old and dirty.  Two double beds.  One had stains on the sheets.  At this point I am not happy.  We walked to Starbucks next door and when we came back I started googling how to tell if there were bed bugs.  Sure enough, they were there and crawling around.  Needless to say we left immediately.  Not even an apology from the front desk.  They offered us another room...LOL.  Have contacted American airlines and haven't heard back from them yet.MoreShow less</t>
   </si>
   <si>
-    <t>December 2012</t>
-  </si>
-  <si>
     <t>American Airlines sent us to this hotel when, due to their fault, our flight connection could not be made.  This place is old, but lobby looked like it might be okay for an overnight.  First room they sent us too had not been cleaned after the prior guest.  Okay, honest mistake.  Second room smelled, white towels were brown/gray/dingy, carpet was old and dirty.  Two double beds.  One had stains on the sheets.  At this point I am not happy.  We walked to Starbucks next door and when we came back I started googling how to tell if there were bed bugs.  Sure enough, they were there and crawling around.  Needless to say we left immediately.  Not even an apology from the front desk.  They offered us another room...LOL.  Have contacted American airlines and haven't heard back from them yet.More</t>
   </si>
   <si>
-    <t>AdventureGirl17</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r146504396-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>146504396</t>
+  </si>
+  <si>
+    <t>11/30/2012</t>
+  </si>
+  <si>
+    <t>"Sleep tight. Don't let the bed bugs bite" isn't just an old saying!</t>
+  </si>
+  <si>
+    <t>When our flight was cancelled on 10/4/12, we were given a voucher by AA for a room at this motel.  I was awakened in the middle of the night by something crawling on my chest.  The bed was teeming with two different kinds of bugs!  We were given a different room without bugs, and learned in the morning that another traveler had the same experience.  Other than the horrible memory, we thought that was the end of it.  However, a few days later I broke out with large, itchy bites, which quickly spread all over my body.  The bites became infected and the medication for that made me feel terrible.  It took well over a month and a half to completely get over the effects of the bites and medication.  In the meantime, the hotel manager has ignored my husband's efforts to contact her.  We feel it only fair that we be reimbursed for medical costs.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>When our flight was cancelled on 10/4/12, we were given a voucher by AA for a room at this motel.  I was awakened in the middle of the night by something crawling on my chest.  The bed was teeming with two different kinds of bugs!  We were given a different room without bugs, and learned in the morning that another traveler had the same experience.  Other than the horrible memory, we thought that was the end of it.  However, a few days later I broke out with large, itchy bites, which quickly spread all over my body.  The bites became infected and the medication for that made me feel terrible.  It took well over a month and a half to completely get over the effects of the bites and medication.  In the meantime, the hotel manager has ignored my husband's efforts to contact her.  We feel it only fair that we be reimbursed for medical costs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r146231901-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>146231901</t>
+  </si>
+  <si>
+    <t>11/26/2012</t>
+  </si>
+  <si>
+    <t>Many Pros - Few Cons</t>
+  </si>
+  <si>
+    <t>We have a company and sometimes bring in groups of our people from other states, but as a small business, the lowest price always prevails.  We had our people stay at a hotel right next to this one the previous year but offered much more amenities and definitely a better quality hotel.  After calling several hotels to confirm prices, Quality Inn was one of the last ones I called because I knew their prices were higher, HOWEVER, I called them and, after their quote, I told them that wouldn't work and thanked Sheree for the info.  She stopped me and asked the lowest price we had been quoted, she went to her manager, they accepted that price &amp; knocked off some more money to ensure they had our business, and the rooms were booked!  Sheree was especially great at confirming all the people were properly assigned the rooms per our request.  With the majority of people flying into the DFW airport, this Quality Inn was on the southend of the airport so shuttle service was no problem and took no time.  They had free wifi and breakfast, AND they have a Starbucks next door...hallelujah.  There was a slight issue with two rooms getting the last few people checked in at 3am, but overall, great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>We have a company and sometimes bring in groups of our people from other states, but as a small business, the lowest price always prevails.  We had our people stay at a hotel right next to this one the previous year but offered much more amenities and definitely a better quality hotel.  After calling several hotels to confirm prices, Quality Inn was one of the last ones I called because I knew their prices were higher, HOWEVER, I called them and, after their quote, I told them that wouldn't work and thanked Sheree for the info.  She stopped me and asked the lowest price we had been quoted, she went to her manager, they accepted that price &amp; knocked off some more money to ensure they had our business, and the rooms were booked!  Sheree was especially great at confirming all the people were properly assigned the rooms per our request.  With the majority of people flying into the DFW airport, this Quality Inn was on the southend of the airport so shuttle service was no problem and took no time.  They had free wifi and breakfast, AND they have a Starbucks next door...hallelujah.  There was a slight issue with two rooms getting the last few people checked in at 3am, but overall, great experience.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r143737078-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -714,9 +965,6 @@
     <t>Like some other reviewers, I was stuck here because AA made me miss my connection.  Had to wait 1 1/2 hrs for someone to show up with a shuttle to bring us (including a mom with her baby) to the hotel.  It's located right next to the highway, so be prepared for traffic noise all night.  I could also hear every word my neighbor was saying because the walls are so thin.  Room is not very clean, and the staff was unfriendly.  There is hair on one of the beds that does not belong to me - disgusting.I hope the money AA saved by having us stay here was worth losing business.  They don't even send their flight crews to stay here.More</t>
   </si>
   <si>
-    <t>Karen D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r143287985-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -732,12 +980,6 @@
     <t>Stayed here 3 nights. Room was clean and inviting, bed comfortable. Was able to sleep in as it was relatively quiet and the window coverings kept the room dark. Staff friendly and helpful. Within walking distance of three restaurants.</t>
   </si>
   <si>
-    <t>October 2012</t>
-  </si>
-  <si>
-    <t>Rob R</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r140529303-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -756,7 +998,34 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>qsbfd</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r140502792-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>140502792</t>
+  </si>
+  <si>
+    <t>Two Thumbs Up!</t>
+  </si>
+  <si>
+    <t>I like this hotel because the rooms are clean and the staff is very friendly and helpful.  They offer a full breakfast that is always hot and fresh.  Every time my we are in the HEB area we stay at this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r140208792-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>140208792</t>
+  </si>
+  <si>
+    <t>09/13/2012</t>
+  </si>
+  <si>
+    <t>A great place to stay!</t>
+  </si>
+  <si>
+    <t>My experience with this hotel was very satisfying.   I had to catch a ride from the airport and the shuttle  driver was prompt and friendly.  When I got to the hotel the girl behind the front desk was  nice and mindful of my needs.  I was very tired from my long, eventful day at the airport and was pleased with  the stress free process of getting to my room and proper instructions to catch the shuttle back to Dfw airport in the morning. As far as cleanliness goes, I was very impressed with the condition of my room.  Everything appeared to be neat and tidy with a fresh smell.  Last,  the breakfast they have to offer is hot and fresh with a wide variety.  I would most definitely recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>My experience with this hotel was very satisfying.   I had to catch a ride from the airport and the shuttle  driver was prompt and friendly.  When I got to the hotel the girl behind the front desk was  nice and mindful of my needs.  I was very tired from my long, eventful day at the airport and was pleased with  the stress free process of getting to my room and proper instructions to catch the shuttle back to Dfw airport in the morning. As far as cleanliness goes, I was very impressed with the condition of my room.  Everything appeared to be neat and tidy with a fresh smell.  Last,  the breakfast they have to offer is hot and fresh with a wide variety.  I would most definitely recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r139834862-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -781,9 +1050,6 @@
 The next morning we got up earlier than we really wanted to in order to take advantage of the breakfast.......I wish I hadn't bothered.  The whole breakfast room is set up wierd. Why would anyone put the eggs &amp; sausage between the waffle batter and the waffle iron? We could not even get to the hot food for the folks...If I HAD read the reviews I would never have booked this hotel. When will I learn?We were in town for the Bedford Blues and BBQ Festival (where we had a great time) and booked this hotel for 2 nights because of the close proximty and it was, after all, a Choice Hotel. Yes, there is a great deal of highway construction going on but that is hardly the fault of the various merchants who are, no doubt, losing revenue because it is so difficult to access their businesses.  We requested a king-smoking-downstairs which is becoming harder and harder to find. We also were told at 1:30 that we could not check in before 3PM. When we came back we were were quickly checked in. The room itself was fine with exception of the dirty carpet, as evidenced on the bottoms of my feet at bedtime. The air conditioning worked very well, the linen was fine and we appreciated the desk and Wi-Fi access.  Only complaint so far was that the toilet did not want to flush very well.The next morning we got up earlier than we really wanted to in order to take advantage of the breakfast.......I wish I hadn't bothered.  The whole breakfast room is set up wierd. Why would anyone put the eggs &amp; sausage between the waffle batter and the waffle iron? We could not even get to the hot food for the folks standing there with their little cups of batter waiting on their turn at the waffle iron. We decided to just give up and eat the cold items. There were ONLY 4 little mini muffins left along with some dired up bread for toast. We took those and went back to the room only to discover that they were cornbread! Really??? Who eats cornbread for breakfast? We went next door to Denny's.We had left the room at 8:30 for breakfast. When we returned at 11 the room had not been cleaned. When we returned at 2:30 the room had still not been cleaned. I called the front desk and the girl working the desk said she would call housekeeping and call me back.  She didn't so I called her again and requested to speak with management-that never happened. When she did not call back I went looking for the housekeeper. Of course she did not speak English so I found another housekeeper with poor but understandable English but she didn't seem concerned. When I had not had a call back by 3PM I called the front desk again and got a different person (of course! shift change!). This very nice lady said she had not been informed by oral or written report that there was an unresolved problem. I am furious at this point. My husband talked to her and told her that if our room wasn't to be cleaned we would prefer to just leave (she had already told us that all the housekeepers had left). She assured us that would be fine, we would not be charged for the 2nd night and that she understood. Very nice. As we were packing up the car there was a knock at the door...housekeeping! Are you kidding me???? We told them we were leaving and would be out of their way in 10 minutes. At check-out the clerk was very nice and provided us with a business card with the managers name. The only thing this manager is managing is to take home a paycheck. We would never, ever stay here again. This hotel could be OK under different management but as long as Karen Lugo is managing I would not stay here if SHE paid ME the $90 we wasted here.More</t>
   </si>
   <si>
-    <t>DALE C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r139275564-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -807,9 +1073,6 @@
 Since I was now in a non smoking room, I had to go outside my door to smoke. Inadequate lighting at night...I requested a smoking room which I did get but upon arrival to this room, the a/c wasn't working properly and the requested fridge was not in the room. They moved me to another room, a/c worked but it was a non smoking room and I still did not have a fridge/microwave. Maintenance was to bring me a fridge but he was waiting for a key to get me one. I was told I HAD to wait in my room for him to show up. What maintenance man doesn't have a key to get supplies??? I waited two hours, for the fridge and microwave so I could fix my dinner,, Long day and I was very hungry so I called the front desk numerous times, and never did get the fridge/microwave that night. I had to leave the generator running all night on my bus to keep my food cold. Costing me a lot in fuel!! Fuel at 4.00 a gallon, a gallon an hour,, you figure it out !! I finally got the fridge the next day after MY telling the maintenance man!! But guess what??? I got charged for 3 days of using a fridge when I only had it for two!!! and  the night and Morning clerk Knew I never got it the 1st night..Since I was now in a non smoking room, I had to go outside my door to smoke. Inadequate lighting at night hindered me from seeing hundreds of red ants all over the walkway in front of my door resulting in me getting stung several times on my feet, ouch ouch. More then 3/4 of the outside lights where out along the rooms. That’s very unsafe at night!!I Went to shower and shave, and there was no drainage! The full sink from me shaving did not drain until the following morning.The striker plate on my door was falling off which prevents you from properly locking the door. This is just on the first day!!!Went to the front desk the second morning around 8a.m. to speak to the Manager and was told she would be there around 10. The desk clerk made a list of all my complaints and she would give it to the maintenance man. I told her I wanted the Manager to call me when she got in. The desk clerk said she would give the Manager my message. I have yet to hear from the Manager!! I found the maintenance man myself, and asked him if he knew of my complaints, to which he replied that he didn't. He started working on all the issues.  The desk clerk came around to find out if the issues were being taken care of. At that time, I asked her where the Manager was, she said that she took care of the complaints. I told her I didn't care that I wanted to talk to the Manager. I never did get a phone call, or any conversation at all, from the Manager. I would never stay at the motel again and I will certainly make sure that everyone I know is aware of how I was treated here!! This place is the worst motel I have ever stayed in!!There is so much more that I could say but I am tired of typing !!!  Only good thing is next door you have a Starbucks and a Denny’s and several others restaurants.. Its Not bus friendly as far as parking goes and there is allot of road construction on 183 making it hard to access this dump. I had to stay here because there were no other available rooms in the Arlington Texas  area.WHAT A NIGHTMARE!!and shame on the Managment and Owners of this Motel !!!More</t>
   </si>
   <si>
-    <t>Karen H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r137114891-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -828,7 +1091,40 @@
     <t>July 2012</t>
   </si>
   <si>
-    <t>DawninDallas</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r135977192-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>135977192</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Needs LOTS OF REPAIR</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night when attending a Rangers game.  I arrived at 1:30 and told there was no way to check in until 3 so we wasted time until 2:30-2:45 and the still wouldnt let us check in although the rooms had to be ready because 15 minutes later at exactly 3 they let us in.  When I walked into the room the first thing i noticed was the top hinge lock was halfway unscrewed from door, it looked like someone had tried to break the door down and it had never been fixed.  Also there was paint chipped in large sections off door and wall (avoid room 157).  The bathroom tiles in shower had moldy stains in the grout and overall just looked pretty grungy.  This is all I noticed at the time because we were in a rush to get to the ballpark.  When we got back after game we were getting ready for bed, pulled back the sheets and there was a golfball sized hole burned through the sheets and also mold on the sheets.  I then noticed there were 2 empty beer cans behind the chair by the A/C that must have been left from the visit before as it was just me and kids and we had no beer.  I called the desk and told them about the beer cans, lock, and bed and he said they would give me a discount and...I stayed here for 1 night when attending a Rangers game.  I arrived at 1:30 and told there was no way to check in until 3 so we wasted time until 2:30-2:45 and the still wouldnt let us check in although the rooms had to be ready because 15 minutes later at exactly 3 they let us in.  When I walked into the room the first thing i noticed was the top hinge lock was halfway unscrewed from door, it looked like someone had tried to break the door down and it had never been fixed.  Also there was paint chipped in large sections off door and wall (avoid room 157).  The bathroom tiles in shower had moldy stains in the grout and overall just looked pretty grungy.  This is all I noticed at the time because we were in a rush to get to the ballpark.  When we got back after game we were getting ready for bed, pulled back the sheets and there was a golfball sized hole burned through the sheets and also mold on the sheets.  I then noticed there were 2 empty beer cans behind the chair by the A/C that must have been left from the visit before as it was just me and kids and we had no beer.  I called the desk and told them about the beer cans, lock, and bed and he said they would give me a discount and he would have to "see if he could find extra sheets" he didnt think they had any and he would have to steal them from another room.  I asked why he didnt just move us to the room he was stealing from and he said they were out of order rooms.  needless to say he did show up with clean blankets and there discount for all my problems was only $10.  I will NOT be staying there againMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for 1 night when attending a Rangers game.  I arrived at 1:30 and told there was no way to check in until 3 so we wasted time until 2:30-2:45 and the still wouldnt let us check in although the rooms had to be ready because 15 minutes later at exactly 3 they let us in.  When I walked into the room the first thing i noticed was the top hinge lock was halfway unscrewed from door, it looked like someone had tried to break the door down and it had never been fixed.  Also there was paint chipped in large sections off door and wall (avoid room 157).  The bathroom tiles in shower had moldy stains in the grout and overall just looked pretty grungy.  This is all I noticed at the time because we were in a rush to get to the ballpark.  When we got back after game we were getting ready for bed, pulled back the sheets and there was a golfball sized hole burned through the sheets and also mold on the sheets.  I then noticed there were 2 empty beer cans behind the chair by the A/C that must have been left from the visit before as it was just me and kids and we had no beer.  I called the desk and told them about the beer cans, lock, and bed and he said they would give me a discount and...I stayed here for 1 night when attending a Rangers game.  I arrived at 1:30 and told there was no way to check in until 3 so we wasted time until 2:30-2:45 and the still wouldnt let us check in although the rooms had to be ready because 15 minutes later at exactly 3 they let us in.  When I walked into the room the first thing i noticed was the top hinge lock was halfway unscrewed from door, it looked like someone had tried to break the door down and it had never been fixed.  Also there was paint chipped in large sections off door and wall (avoid room 157).  The bathroom tiles in shower had moldy stains in the grout and overall just looked pretty grungy.  This is all I noticed at the time because we were in a rush to get to the ballpark.  When we got back after game we were getting ready for bed, pulled back the sheets and there was a golfball sized hole burned through the sheets and also mold on the sheets.  I then noticed there were 2 empty beer cans behind the chair by the A/C that must have been left from the visit before as it was just me and kids and we had no beer.  I called the desk and told them about the beer cans, lock, and bed and he said they would give me a discount and he would have to "see if he could find extra sheets" he didnt think they had any and he would have to steal them from another room.  I asked why he didnt just move us to the room he was stealing from and he said they were out of order rooms.  needless to say he did show up with clean blankets and there discount for all my problems was only $10.  I will NOT be staying there againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r134670344-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>134670344</t>
+  </si>
+  <si>
+    <t>07/17/2012</t>
+  </si>
+  <si>
+    <t>Clean rooms but several problems</t>
+  </si>
+  <si>
+    <t>Pro’s – the room was clean, the bed was comfortable, there was sufficient lighting and space to move around.  But on the downside - sluggish plumbing in my room, no hot water if you didn’t shower early (by 7am the water was barely warm, though hot enough if used earlier in the morning).  The bathroom was very clean, but there were no safety bars in the tub enclosure; there was nothing to grab if you slipped in the tub or on  the ceramic tile floor. The air conditioning in the meeting room for the class I was there to attend wasn’t working so the class was moved to the adjoining suite.  The toilet wasn’t working well in that room and management was very reluctant to allow the class (about a dozen people) to use a toilet in another location.  It took several requests over 3 days to secure this basic service.  The ice machine in the lobby was out of order with a sign directing guests to the second floor for ice, a problem for someone who couldn’t climb stairs.  Several of the employees were pleasant and maintenance was quick to respond, even though the problem might not be resolved (ie, the toilet), but several other staff were indifferent and rude.  I cannot recommend this hotel and will not be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Pro’s – the room was clean, the bed was comfortable, there was sufficient lighting and space to move around.  But on the downside - sluggish plumbing in my room, no hot water if you didn’t shower early (by 7am the water was barely warm, though hot enough if used earlier in the morning).  The bathroom was very clean, but there were no safety bars in the tub enclosure; there was nothing to grab if you slipped in the tub or on  the ceramic tile floor. The air conditioning in the meeting room for the class I was there to attend wasn’t working so the class was moved to the adjoining suite.  The toilet wasn’t working well in that room and management was very reluctant to allow the class (about a dozen people) to use a toilet in another location.  It took several requests over 3 days to secure this basic service.  The ice machine in the lobby was out of order with a sign directing guests to the second floor for ice, a problem for someone who couldn’t climb stairs.  Several of the employees were pleasant and maintenance was quick to respond, even though the problem might not be resolved (ie, the toilet), but several other staff were indifferent and rude.  I cannot recommend this hotel and will not be staying there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r134662389-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -837,9 +1133,6 @@
     <t>134662389</t>
   </si>
   <si>
-    <t>07/17/2012</t>
-  </si>
-  <si>
     <t>Toilets need repair</t>
   </si>
   <si>
@@ -867,9 +1160,6 @@
     <t>I have been stayng at this hotel for several nights at a time a couple of times a year since 2006 and I like it.  The rooms are clean.  The beds and pillows are comfortable.  They have a hot breakfast with eggs, waffles, sausages, and all the cold stuff like cereal, muffins, yogurt, and toast.  The hotel staff is friendly and nice to me.  The rates are very good.  When there has been something that has been broken, they fix it or move me to another room.  I always stay on the far back side of the property 2nd floor and it is very quiet.  I enjoy hearing the birds sing and the view of the fields.  This hotel is not very busy so it is plenty quiet - no worries about people keeping you up at night.  I always feel safe here and walk around the hotel for exercise at night.  And there is a pool in season that I enjoy.  It is only 7 min. from DFW airport so I can finish my class and fly out.More</t>
   </si>
   <si>
-    <t>valeryg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r128352764-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -888,7 +1178,40 @@
     <t>January 2012</t>
   </si>
   <si>
-    <t>GlobalGirlz</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r119010396-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>119010396</t>
+  </si>
+  <si>
+    <t>10/06/2011</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>stayed here just one night nice room comfortable bed staff helpful and a good breakfast</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r118269470-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>118269470</t>
+  </si>
+  <si>
+    <t>09/18/2011</t>
+  </si>
+  <si>
+    <t>Terrible hotel!!!!</t>
+  </si>
+  <si>
+    <t>Be careful with this hotel. This is one of the terrible hotel.Staffs are very rude. They don't know how to solve the problem. What happend was I made reservation for 2 nights but checked-out one day earlier. I informed to the desk that I am going to check-out one day earlier but somehow they did not check me out from the system. So I was charged 2 nights.Be careful with this hotel!!!!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r117050116-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -906,9 +1229,6 @@
     <t xml:space="preserve">Got put up here for one night by American Airlines when late flight made us miss our connection. The shuttle driver to/from the airport is a rude and obnoxious-- beware. Room was fine but only access from outdoors and it was over 100 degrees in Dallas so you sweat just walking to your room and at night we had to run the shower for 30 mins before we got hot water. I can't imagine that anyone would actually pay to stay here. </t>
   </si>
   <si>
-    <t>Jim D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r116628185-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -930,9 +1250,6 @@
     <t>Like many others, I was one of the unsuspecting "suckers" sent here by American Airlines when my flight had mechanical problems.  I arrived around 9 pm and informed the Desk CLerk that I had a 6:26 am flight the next day.  She told me that the first shuttle departed at 5:00 and I would need to be there at 4:50.  I then saw her put my room number down on the shuttle manifest list for 5:00 am.  I got my key and began walking to my room.  There were 6 of us on the shuttle sent by American and I was the first to get my key.  All of us were sent to rooms at the very back of the hotel.  The exterior corridors are very dimly lit.  As I was walking, I noticed that the pool was full of leaves and plant debris, but there were no trees on the property.  Thankfully, I had no plans to swim.  As I turned the corner at the back of the hotel, I noticed three men in their early 20s drinking and smoking cigarettes outside their room.  I walked back and told the two female guests that I was concerned for their safety and that I would walk them to their rooms if they would like. Both were very thankful and took me up on the offer.  After ensuring that they were safely in their rooms, I went to my room and...Like many others, I was one of the unsuspecting "suckers" sent here by American Airlines when my flight had mechanical problems.  I arrived around 9 pm and informed the Desk CLerk that I had a 6:26 am flight the next day.  She told me that the first shuttle departed at 5:00 and I would need to be there at 4:50.  I then saw her put my room number down on the shuttle manifest list for 5:00 am.  I got my key and began walking to my room.  There were 6 of us on the shuttle sent by American and I was the first to get my key.  All of us were sent to rooms at the very back of the hotel.  The exterior corridors are very dimly lit.  As I was walking, I noticed that the pool was full of leaves and plant debris, but there were no trees on the property.  Thankfully, I had no plans to swim.  As I turned the corner at the back of the hotel, I noticed three men in their early 20s drinking and smoking cigarettes outside their room.  I walked back and told the two female guests that I was concerned for their safety and that I would walk them to their rooms if they would like. Both were very thankful and took me up on the offer.  After ensuring that they were safely in their rooms, I went to my room and was appalled.  The carpet was stained, the walls were moldy and cracked, the room smelled as if whatever foul smells were in there were being covered with way too much air frshener.  I set my alarm for 4:00 am and went to sleep.  When I woke up at 4:00 and turned on the light, cockroaches and crickets scattered across the floor.  I quickly showered and dressed thankful to be leaving,  I checked out and asked the Desk Clerk about where I should meet the shuttle.  He looked at my key card and told me that I was not scheduled for the 5:00 am shuttle. I told him that there must be a mistake as I watched the Desk Clerk put my room number down for the shuttle.  He told me that there was no mistake and that he could not explain why I was not on the list but that I would need to get a cab and pay myself for my trip back to DFW.  I have complained to American Airlines and can assure you that I will do everything that I can to keep from flying on American again.  In fact, when I fly to an city only served by American, I will fly to the next closest city served by another airline and drive the remainder of the route.If anyone ever has an issue with criminal activity at this hotel, I have contacted American and informed themthat this hotel is not safe.  I would be willing to testify on your behalf against them if they continue to send unsuspecting passengers here.WHATEVER YOU DO, DO NOT STAY AT THIS HOTEL!!!!!!More</t>
   </si>
   <si>
-    <t>Coloradomom55</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r102851785-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -954,7 +1271,40 @@
     <t>I'd like to invite American Airlines' CEO to stay a night in this hotel that his company put us up in last night.  With so many newer, clean accommodations close to DFW, why on earth does AA use this awful, outdated property?  I can only guess that they get the rooms for next to nothing, because that's what they are worth.  Like the previous reviewer, we stayed at the Quality Inn Euless courtesy of a voucher from AA.  After nearly an hour wait for the Quality Inn shuttle (which was as dirty and awful as the hotel) we were taken to a run-down, flea-bag of a motel whose best days were decades ago.  The shuttle driver barely acknowledged her passengers and any attempt at conversation was met with surly, one-word responses.  The motel parking lot was basically deserted; my guess is that the only patrons on most nights are those poor, unsuspecting souls sent there by American.  External walkways were dimly lit, there was pealing paint and rust on the outdoor stairs.  Our room had the distinctive smell of an attempt to cover up odors with the sickly sweet scent of a continuous air freshener.  Although the linens appeared clean, we wore socks in the room due to the questionable condition of the carpet.  The dead spider and rolly-polly bug in the bathroom were a nice touch.  The exhaust vent in the bathroom was blocked with dirt and dust.  the...I'd like to invite American Airlines' CEO to stay a night in this hotel that his company put us up in last night.  With so many newer, clean accommodations close to DFW, why on earth does AA use this awful, outdated property?  I can only guess that they get the rooms for next to nothing, because that's what they are worth.  Like the previous reviewer, we stayed at the Quality Inn Euless courtesy of a voucher from AA.  After nearly an hour wait for the Quality Inn shuttle (which was as dirty and awful as the hotel) we were taken to a run-down, flea-bag of a motel whose best days were decades ago.  The shuttle driver barely acknowledged her passengers and any attempt at conversation was met with surly, one-word responses.  The motel parking lot was basically deserted; my guess is that the only patrons on most nights are those poor, unsuspecting souls sent there by American.  External walkways were dimly lit, there was pealing paint and rust on the outdoor stairs.  Our room had the distinctive smell of an attempt to cover up odors with the sickly sweet scent of a continuous air freshener.  Although the linens appeared clean, we wore socks in the room due to the questionable condition of the carpet.  The dead spider and rolly-polly bug in the bathroom were a nice touch.  The exhaust vent in the bathroom was blocked with dirt and dust.  the inside of the air conditioner was covered with dust, mold and what appeared to be insect droppings  You could see daylight around the external door, hardly a secure feeling.  The free continental breakfast was not for the faint of heart.  Breakfast hours were advertised as 5:00 to 9:00 am.  We arrived at about 8:00 am.  No one appeared to be in attendance to clean up or replenish supplies.  Boiled eggs with cracked shells sat in lukewarm water just waiting for an unsuspecting victim.  Congealed country gravy and exactly 1/2 patty of sausage.  A fruit bowl with one apple.  A juice machine that looked as if it had never been wiped down.  The only edible item was the make-your-own waffle in the shape of the state of Texas.  We took a peek at the outdoor (cess)pool before we left -- cloudy, uninviting water full of leaves and twigs.  Again we had the surly van driver going back to the airport.  There were six of us waiting for the van back to the airport and her only words were, "You ready?"  Is this American Airlines' idea of acceptable accommodations for displaced passengers?  Because there was nothing of quality about this inn.More</t>
   </si>
   <si>
-    <t>realjewell</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r91773071-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>91773071</t>
+  </si>
+  <si>
+    <t>01/04/2011</t>
+  </si>
+  <si>
+    <t>Room was free and overpriced!</t>
+  </si>
+  <si>
+    <t>We eneded up at this hotel (motel) due to flight issues on American Airlines.  We travel alot and this was the worst room we have ever stayed in.  Mold in the bathroom, shower faucet falling off the wall, paper thin walls, even the vewhicle for the shuttle was as beaten up as the room was. No internal hallways.  The family we were travelling with ended up in a better room and we overheard the front desk saying that they should not have been in that room....in other words those who arrive from AA get the worst rooms!  AA should be ashamed of using this place.  In hindsight we would have gladly paid to stay somewhere else vs. this worn out, dirty, rundown place.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>We eneded up at this hotel (motel) due to flight issues on American Airlines.  We travel alot and this was the worst room we have ever stayed in.  Mold in the bathroom, shower faucet falling off the wall, paper thin walls, even the vewhicle for the shuttle was as beaten up as the room was. No internal hallways.  The family we were travelling with ended up in a better room and we overheard the front desk saying that they should not have been in that room....in other words those who arrive from AA get the worst rooms!  AA should be ashamed of using this place.  In hindsight we would have gladly paid to stay somewhere else vs. this worn out, dirty, rundown place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r88262149-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>88262149</t>
+  </si>
+  <si>
+    <t>11/26/2010</t>
+  </si>
+  <si>
+    <t>Great for price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Older hotel but updated and clean. Great value for price. Free breakfast. Friendly staff. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r85780386-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
@@ -978,9 +1328,6 @@
     <t>We stayed at this Quality Inn because of having missed a flight out of DFW.  We received a voucher for the accommodations from American Airlines.  The biggest plus was the friendliness of the front desk staff.  Also, the nearby Dennys has a terrific waitress--Prudie.  Other than that, is was not a pleasant experience.  Granted, we were very tired, having flown 11+ hours from Europe, having missed our connecting flight and having been told that there would be no seats for us until Tuesday (this was Sunday night), andhaving waited approximately 45 minutes for the hotel shuttle at DFW, etc.  Worst of all, when we finally made it to the head of the line to check in (at about 11:30 p.m.), we were told that there were no more non-smoking rooms.  The room we were given smelled worse than terrible.  The bathtub had been painted with some sort of white material that rendered it was streaky and strange.  The smell of stale cigarettes was the worst, however.  I cannot believe that people can actually sleep in such rooms, even smokers.  The room--and the motel itself--were very careworn and in need of extensive renovation.  The breakfast provided was welcome, but marginal.  Even had we been in a "happy place" emotionally and physically, this property was definitely substandard.  Props, however, to the front desk staff for making the best of a difficult situation.  There had been tornadoes in the area earlier in the...We stayed at this Quality Inn because of having missed a flight out of DFW.  We received a voucher for the accommodations from American Airlines.  The biggest plus was the friendliness of the front desk staff.  Also, the nearby Dennys has a terrific waitress--Prudie.  Other than that, is was not a pleasant experience.  Granted, we were very tired, having flown 11+ hours from Europe, having missed our connecting flight and having been told that there would be no seats for us until Tuesday (this was Sunday night), andhaving waited approximately 45 minutes for the hotel shuttle at DFW, etc.  Worst of all, when we finally made it to the head of the line to check in (at about 11:30 p.m.), we were told that there were no more non-smoking rooms.  The room we were given smelled worse than terrible.  The bathtub had been painted with some sort of white material that rendered it was streaky and strange.  The smell of stale cigarettes was the worst, however.  I cannot believe that people can actually sleep in such rooms, even smokers.  The room--and the motel itself--were very careworn and in need of extensive renovation.  The breakfast provided was welcome, but marginal.  Even had we been in a "happy place" emotionally and physically, this property was definitely substandard.  Props, however, to the front desk staff for making the best of a difficult situation.  There had been tornadoes in the area earlier in the day which had wreaked havoc with flight schedules.  We did eventually make it home the following day (Monday), but only by flying via Palm Springs to get to our real destination--Sacramento.More</t>
   </si>
   <si>
-    <t>ReneeW4</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r84013752-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -996,9 +1343,6 @@
     <t>There were obvious dried spills on the comforter - not stains - spills that would have come out if it were washed.  Small bugs, some dead, some alive.  Dust in areas that should have been dusted.  Pretty gross.</t>
   </si>
   <si>
-    <t>dharmesh8</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r60862707-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
   </si>
   <si>
@@ -1015,6 +1359,24 @@
   </si>
   <si>
     <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d98736-r38160453-Motel_6_Euless_DFW_West-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>38160453</t>
+  </si>
+  <si>
+    <t>08/19/2009</t>
+  </si>
+  <si>
+    <t>Good service, good location, smelly room</t>
+  </si>
+  <si>
+    <t>This hotel was quite cheap, and good for an overnight stay to catch an early flight out of DFW.  It is also convenient to a few places to grab a bite, and the desk staff was pleasant.  However, though a non-smoking room was booked, the room smelled distinctly of old smoke.  The carpet called for flip-flopped feet, though the bathroom was somewhat clean.  All in all, if you get a great price and don't mind wearing socks around the room and can handle the smell, not too bad.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
   </si>
 </sst>
 </file>
@@ -1519,54 +1881,52 @@
       <c r="A2" t="n">
         <v>5200</v>
       </c>
-      <c r="B2" t="n">
-        <v>169368</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>5</v>
@@ -1574,203 +1934,185 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" t="s">
-        <v>56</v>
-      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5200</v>
       </c>
-      <c r="B3" t="n">
-        <v>37350</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K3" t="s">
-        <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5200</v>
       </c>
-      <c r="B4" t="n">
-        <v>169369</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" t="s">
-        <v>74</v>
-      </c>
       <c r="P4" t="s"/>
-      <c r="Q4" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5200</v>
       </c>
-      <c r="B5" t="n">
-        <v>169370</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>76</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="O5" t="s">
         <v>77</v>
       </c>
-      <c r="J5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O5" t="s">
-        <v>65</v>
-      </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1778,66 +2120,62 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5200</v>
       </c>
-      <c r="B6" t="n">
-        <v>169371</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
       <c r="O6" t="s">
-        <v>74</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1845,125 +2183,109 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5200</v>
       </c>
-      <c r="B7" t="n">
-        <v>169372</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
-      <c r="O7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5200</v>
       </c>
-      <c r="B8" t="n">
-        <v>42458</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="O8" t="s">
-        <v>105</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="n">
         <v>3</v>
       </c>
@@ -1977,131 +2299,123 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5200</v>
       </c>
-      <c r="B9" t="n">
-        <v>23651</v>
-      </c>
-      <c r="C9" t="s">
-        <v>106</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5200</v>
       </c>
-      <c r="B10" t="n">
-        <v>169373</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
       <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -2109,70 +2423,60 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5200</v>
       </c>
-      <c r="B11" t="n">
-        <v>148634</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -2180,70 +2484,62 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5200</v>
       </c>
-      <c r="B12" t="n">
-        <v>169374</v>
-      </c>
-      <c r="C12" t="s">
-        <v>128</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2251,122 +2547,118 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5200</v>
       </c>
-      <c r="B13" t="n">
-        <v>13148</v>
-      </c>
-      <c r="C13" t="s">
-        <v>136</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5200</v>
       </c>
-      <c r="B14" t="n">
-        <v>169375</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
         <v>3</v>
@@ -2381,141 +2673,123 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5200</v>
       </c>
-      <c r="B15" t="n">
-        <v>169376</v>
-      </c>
-      <c r="C15" t="s">
-        <v>151</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="K15" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="O15" t="s">
-        <v>96</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>5</v>
-      </c>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5200</v>
       </c>
-      <c r="B16" t="n">
-        <v>169377</v>
-      </c>
-      <c r="C16" t="s">
-        <v>158</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="K16" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2523,70 +2797,66 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5200</v>
       </c>
-      <c r="B17" t="n">
-        <v>169378</v>
-      </c>
-      <c r="C17" t="s">
-        <v>165</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2594,70 +2864,66 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5200</v>
       </c>
-      <c r="B18" t="n">
-        <v>169379</v>
-      </c>
-      <c r="C18" t="s">
-        <v>172</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="O18" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2665,70 +2931,66 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5200</v>
       </c>
-      <c r="B19" t="n">
-        <v>169380</v>
-      </c>
-      <c r="C19" t="s">
-        <v>179</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="K19" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="L19" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="O19" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2736,70 +2998,66 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5200</v>
       </c>
-      <c r="B20" t="n">
-        <v>169375</v>
-      </c>
-      <c r="C20" t="s">
-        <v>151</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="K20" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L20" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>172</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
         <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>185</v>
-      </c>
-      <c r="O20" t="s">
-        <v>65</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2807,141 +3065,123 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5200</v>
       </c>
-      <c r="B21" t="n">
-        <v>169381</v>
-      </c>
-      <c r="C21" t="s">
-        <v>191</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="K21" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O21" t="s">
-        <v>96</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5200</v>
       </c>
-      <c r="B22" t="n">
-        <v>169382</v>
-      </c>
-      <c r="C22" t="s">
-        <v>197</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="P22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2949,129 +3189,117 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5200</v>
       </c>
-      <c r="B23" t="n">
-        <v>31028</v>
-      </c>
-      <c r="C23" t="s">
-        <v>204</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="J23" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="K23" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="L23" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
-      <c r="N23" t="s"/>
-      <c r="O23" t="s"/>
-      <c r="P23" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1</v>
-      </c>
+      <c r="N23" t="s">
+        <v>172</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5200</v>
       </c>
-      <c r="B24" t="n">
-        <v>169383</v>
-      </c>
-      <c r="C24" t="s">
-        <v>211</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="J24" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="K24" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>172</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -3083,70 +3311,66 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5200</v>
       </c>
-      <c r="B25" t="n">
-        <v>169384</v>
-      </c>
-      <c r="C25" t="s">
-        <v>217</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="J25" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3154,64 +3378,66 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>5200</v>
       </c>
-      <c r="B26" t="n">
-        <v>169385</v>
-      </c>
-      <c r="C26" t="s">
-        <v>225</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="L26" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
-      <c r="P26" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>209</v>
+      </c>
+      <c r="O26" t="s">
+        <v>116</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3219,63 +3445,59 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>5200</v>
       </c>
-      <c r="B27" t="n">
-        <v>4468</v>
-      </c>
-      <c r="C27" t="s">
-        <v>232</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="J27" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="K27" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="L27" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="P27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
         <v>4</v>
@@ -3290,63 +3512,59 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>5200</v>
       </c>
-      <c r="B28" t="n">
-        <v>45348</v>
-      </c>
-      <c r="C28" t="s">
-        <v>239</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="K28" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q28" t="n">
         <v>3</v>
       </c>
       <c r="R28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3361,70 +3579,66 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>5200</v>
       </c>
-      <c r="B29" t="n">
-        <v>169386</v>
-      </c>
-      <c r="C29" t="s">
-        <v>246</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>247</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="J29" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="O29" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="P29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -3432,70 +3646,66 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>5200</v>
       </c>
-      <c r="B30" t="n">
-        <v>47331</v>
-      </c>
-      <c r="C30" t="s">
-        <v>253</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="J30" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="O30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
         <v>2</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3503,70 +3713,66 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>5200</v>
       </c>
-      <c r="B31" t="n">
-        <v>10578</v>
-      </c>
-      <c r="C31" t="s">
-        <v>261</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="J31" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="K31" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="L31" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="O31" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
         <v>2</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3574,64 +3780,66 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>5200</v>
       </c>
-      <c r="B32" t="n">
-        <v>169387</v>
-      </c>
-      <c r="C32" t="s">
-        <v>268</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="J32" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K32" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="L32" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="M32" t="n">
-        <v>2</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>243</v>
+      </c>
+      <c r="O32" t="s">
+        <v>77</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
       <c r="Q32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R32" t="n">
         <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3639,70 +3847,62 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>5200</v>
       </c>
-      <c r="B33" t="n">
-        <v>10578</v>
-      </c>
-      <c r="C33" t="s">
-        <v>261</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="J33" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="K33" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>279</v>
-      </c>
-      <c r="O33" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
       <c r="P33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3710,70 +3910,66 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>5200</v>
       </c>
-      <c r="B34" t="n">
-        <v>169388</v>
-      </c>
-      <c r="C34" t="s">
-        <v>281</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="J34" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="K34" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="L34" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="O34" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="P34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
         <v>4</v>
       </c>
-      <c r="R34" t="n">
-        <v>2</v>
-      </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3781,66 +3977,66 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>5200</v>
       </c>
-      <c r="B35" t="n">
-        <v>93685</v>
-      </c>
-      <c r="C35" t="s">
-        <v>288</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="J35" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="K35" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="L35" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>237</v>
+      </c>
+      <c r="O35" t="s">
+        <v>116</v>
+      </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3848,66 +4044,66 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>5200</v>
       </c>
-      <c r="B36" t="n">
-        <v>5511</v>
-      </c>
-      <c r="C36" t="s">
-        <v>294</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="J36" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="K36" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>300</v>
+        <v>159</v>
       </c>
       <c r="O36" t="s">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
       <c r="S36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3915,70 +4111,66 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>5200</v>
       </c>
-      <c r="B37" t="n">
-        <v>169389</v>
-      </c>
-      <c r="C37" t="s">
-        <v>302</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>303</v>
+        <v>265</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>304</v>
+        <v>266</v>
       </c>
       <c r="J37" t="s">
-        <v>305</v>
+        <v>267</v>
       </c>
       <c r="K37" t="s">
-        <v>306</v>
+        <v>268</v>
       </c>
       <c r="L37" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="O37" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3986,68 +4178,66 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>5200</v>
       </c>
-      <c r="B38" t="n">
-        <v>169390</v>
-      </c>
-      <c r="C38" t="s">
-        <v>310</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="J38" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="M38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s">
-        <v>105</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1</v>
+      </c>
       <c r="Q38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4055,58 +4245,52 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>317</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>5200</v>
       </c>
-      <c r="B39" t="n">
-        <v>169391</v>
-      </c>
-      <c r="C39" t="s">
-        <v>318</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>319</v>
+        <v>278</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="J39" t="s">
-        <v>321</v>
+        <v>280</v>
       </c>
       <c r="K39" t="s">
-        <v>322</v>
+        <v>281</v>
       </c>
       <c r="L39" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
-      </c>
-      <c r="N39" t="s">
-        <v>316</v>
-      </c>
-      <c r="O39" t="s">
-        <v>96</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
       <c r="Q39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
         <v>3</v>
@@ -4115,77 +4299,71 @@
         <v>1</v>
       </c>
       <c r="T39" t="s"/>
-      <c r="U39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>5200</v>
       </c>
-      <c r="B40" t="n">
-        <v>169392</v>
-      </c>
-      <c r="C40" t="s">
-        <v>324</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>330</v>
-      </c>
-      <c r="O40" t="s">
-        <v>65</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4193,7 +4371,1764 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" t="s">
+        <v>291</v>
+      </c>
+      <c r="K41" t="s">
+        <v>292</v>
+      </c>
+      <c r="L41" t="s">
+        <v>293</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>277</v>
+      </c>
+      <c r="O41" t="s">
+        <v>116</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>295</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>296</v>
+      </c>
+      <c r="J42" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" t="s">
+        <v>298</v>
+      </c>
+      <c r="L42" t="s">
+        <v>299</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>300</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>302</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>303</v>
+      </c>
+      <c r="J43" t="s">
+        <v>304</v>
+      </c>
+      <c r="K43" t="s">
+        <v>305</v>
+      </c>
+      <c r="L43" t="s">
+        <v>306</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>307</v>
+      </c>
+      <c r="O43" t="s">
+        <v>77</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>309</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>310</v>
+      </c>
+      <c r="J44" t="s">
+        <v>311</v>
+      </c>
+      <c r="K44" t="s">
+        <v>312</v>
+      </c>
+      <c r="L44" t="s">
+        <v>313</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>315</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>316</v>
+      </c>
+      <c r="J45" t="s">
+        <v>317</v>
+      </c>
+      <c r="K45" t="s">
+        <v>318</v>
+      </c>
+      <c r="L45" t="s">
+        <v>319</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>300</v>
+      </c>
+      <c r="O45" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>321</v>
+      </c>
+      <c r="J46" t="s">
+        <v>322</v>
+      </c>
+      <c r="K46" t="s">
+        <v>323</v>
+      </c>
+      <c r="L46" t="s">
+        <v>324</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>325</v>
+      </c>
+      <c r="O46" t="s">
+        <v>116</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>327</v>
+      </c>
+      <c r="J47" t="s">
+        <v>322</v>
+      </c>
+      <c r="K47" t="s">
+        <v>328</v>
+      </c>
+      <c r="L47" t="s">
         <v>329</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>325</v>
+      </c>
+      <c r="O47" t="s">
+        <v>116</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>330</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>331</v>
+      </c>
+      <c r="J48" t="s">
+        <v>332</v>
+      </c>
+      <c r="K48" t="s">
+        <v>333</v>
+      </c>
+      <c r="L48" t="s">
+        <v>334</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>336</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>337</v>
+      </c>
+      <c r="J49" t="s">
+        <v>338</v>
+      </c>
+      <c r="K49" t="s">
+        <v>339</v>
+      </c>
+      <c r="L49" t="s">
+        <v>340</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>325</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>342</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>343</v>
+      </c>
+      <c r="J50" t="s">
+        <v>344</v>
+      </c>
+      <c r="K50" t="s">
+        <v>345</v>
+      </c>
+      <c r="L50" t="s">
+        <v>346</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>347</v>
+      </c>
+      <c r="O50" t="s">
+        <v>77</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1</v>
+      </c>
+      <c r="S50" t="n">
+        <v>2</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>349</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>350</v>
+      </c>
+      <c r="J51" t="s">
+        <v>351</v>
+      </c>
+      <c r="K51" t="s">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s">
+        <v>353</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>354</v>
+      </c>
+      <c r="O51" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>355</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>356</v>
+      </c>
+      <c r="J52" t="s">
+        <v>357</v>
+      </c>
+      <c r="K52" t="s">
+        <v>358</v>
+      </c>
+      <c r="L52" t="s">
+        <v>359</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>354</v>
+      </c>
+      <c r="O52" t="s">
+        <v>67</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>361</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>362</v>
+      </c>
+      <c r="J53" t="s">
+        <v>363</v>
+      </c>
+      <c r="K53" t="s">
+        <v>364</v>
+      </c>
+      <c r="L53" t="s">
+        <v>365</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>354</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>367</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>368</v>
+      </c>
+      <c r="J54" t="s">
+        <v>363</v>
+      </c>
+      <c r="K54" t="s">
+        <v>369</v>
+      </c>
+      <c r="L54" t="s">
+        <v>370</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>2</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>371</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>372</v>
+      </c>
+      <c r="J55" t="s">
+        <v>373</v>
+      </c>
+      <c r="K55" t="s">
+        <v>374</v>
+      </c>
+      <c r="L55" t="s">
+        <v>375</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>376</v>
+      </c>
+      <c r="O55" t="s">
+        <v>77</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>378</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>379</v>
+      </c>
+      <c r="J56" t="s">
+        <v>380</v>
+      </c>
+      <c r="K56" t="s">
+        <v>381</v>
+      </c>
+      <c r="L56" t="s">
+        <v>382</v>
+      </c>
+      <c r="M56" t="n">
+        <v>2</v>
+      </c>
+      <c r="N56" t="s">
+        <v>383</v>
+      </c>
+      <c r="O56" t="s">
+        <v>77</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>384</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>385</v>
+      </c>
+      <c r="J57" t="s">
+        <v>386</v>
+      </c>
+      <c r="K57" t="s">
+        <v>387</v>
+      </c>
+      <c r="L57" t="s">
+        <v>388</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>389</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>390</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>391</v>
+      </c>
+      <c r="J58" t="s">
+        <v>392</v>
+      </c>
+      <c r="K58" t="s">
+        <v>393</v>
+      </c>
+      <c r="L58" t="s">
+        <v>394</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>395</v>
+      </c>
+      <c r="O58" t="s">
+        <v>67</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>396</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>397</v>
+      </c>
+      <c r="J59" t="s">
+        <v>398</v>
+      </c>
+      <c r="K59" t="s">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s">
+        <v>400</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>2</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>401</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>402</v>
+      </c>
+      <c r="J60" t="s">
+        <v>403</v>
+      </c>
+      <c r="K60" t="s">
+        <v>404</v>
+      </c>
+      <c r="L60" t="s">
+        <v>405</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>406</v>
+      </c>
+      <c r="O60" t="s">
+        <v>77</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>408</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>409</v>
+      </c>
+      <c r="J61" t="s">
+        <v>410</v>
+      </c>
+      <c r="K61" t="s">
+        <v>411</v>
+      </c>
+      <c r="L61" t="s">
+        <v>412</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>413</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>415</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>416</v>
+      </c>
+      <c r="J62" t="s">
+        <v>417</v>
+      </c>
+      <c r="K62" t="s">
+        <v>418</v>
+      </c>
+      <c r="L62" t="s">
+        <v>419</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>420</v>
+      </c>
+      <c r="O62" t="s">
+        <v>116</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="s"/>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>422</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>423</v>
+      </c>
+      <c r="J63" t="s">
+        <v>424</v>
+      </c>
+      <c r="K63" t="s">
+        <v>425</v>
+      </c>
+      <c r="L63" t="s">
+        <v>426</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>427</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>428</v>
+      </c>
+      <c r="J64" t="s">
+        <v>429</v>
+      </c>
+      <c r="K64" t="s">
+        <v>430</v>
+      </c>
+      <c r="L64" t="s">
+        <v>431</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="s">
+        <v>432</v>
+      </c>
+      <c r="O64" t="s">
+        <v>60</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>434</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>435</v>
+      </c>
+      <c r="J65" t="s">
+        <v>436</v>
+      </c>
+      <c r="K65" t="s">
+        <v>437</v>
+      </c>
+      <c r="L65" t="s">
+        <v>438</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>432</v>
+      </c>
+      <c r="O65" t="s">
+        <v>116</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>439</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>440</v>
+      </c>
+      <c r="J66" t="s">
+        <v>441</v>
+      </c>
+      <c r="K66" t="s">
+        <v>442</v>
+      </c>
+      <c r="L66" t="s">
+        <v>443</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>444</v>
+      </c>
+      <c r="O66" t="s">
+        <v>77</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>5200</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>445</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>446</v>
+      </c>
+      <c r="J67" t="s">
+        <v>447</v>
+      </c>
+      <c r="K67" t="s">
+        <v>448</v>
+      </c>
+      <c r="L67" t="s">
+        <v>449</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>450</v>
+      </c>
+      <c r="O67" t="s">
+        <v>77</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>2</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>
